--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD5537-CE68-4B13-B984-0A249D02CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97229102-27E7-4550-91DD-BBA51E45052B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>int</t>
   </si>
@@ -93,160 +93,185 @@
     <t>BagItemDesc0001</t>
   </si>
   <si>
+    <t>BagItemDesc0003</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00001</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00002</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00003</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00004</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00005</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00006</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00007</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00008</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00009</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00010</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00011</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00012</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00013</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00014</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00015</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00016</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00017</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00018</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00019</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00020</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00021</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00022</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00023</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00024</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00025</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00026</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00027</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00028</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00029</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00030</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00031</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00032</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00033</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00034</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00035</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00036</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00037</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00038</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00039</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00040</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00041</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00042</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00043</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00044</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00045</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00046</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00047</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00048</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00049</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00050</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0001</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0002</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0003</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0004</t>
+  </si>
+  <si>
     <t>BagItemDesc0002</t>
-  </si>
-  <si>
-    <t>BagItemDesc0003</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00001</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00002</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00003</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00004</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00005</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00006</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00007</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00008</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00009</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00010</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00011</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00012</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00013</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00014</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00015</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00016</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00017</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00018</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00019</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00020</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00021</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00022</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00023</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00024</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00025</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00026</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00027</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00028</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00029</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00030</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00031</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00032</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00033</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00034</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00035</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00036</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00037</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00038</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00039</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00040</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00041</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00042</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00043</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00044</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00045</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00046</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00047</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00048</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00049</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0001</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0002</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0003</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0004</t>
   </si>
 </sst>
 </file>
@@ -774,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -925,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
         <v>267114</v>
@@ -946,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
         <v>267112</v>
@@ -964,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
         <v>269400</v>
@@ -985,10 +1010,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
         <v>269400</v>
@@ -1006,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
         <v>269400</v>
@@ -1027,10 +1052,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
         <v>269400</v>
@@ -1048,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
         <v>269400</v>
@@ -1076,10 +1101,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
         <v>269394</v>
@@ -1105,10 +1130,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
         <v>269394</v>
@@ -1134,10 +1159,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
         <v>269394</v>
@@ -1163,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
         <v>269394</v>
@@ -1192,10 +1217,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
         <v>269394</v>
@@ -1221,10 +1246,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
         <v>269398</v>
@@ -1250,10 +1275,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7">
         <v>269398</v>
@@ -1279,10 +1304,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="7">
         <v>269398</v>
@@ -1299,10 +1324,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
         <v>269398</v>
@@ -1319,10 +1344,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
         <v>269398</v>
@@ -1339,10 +1364,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7">
         <v>269395</v>
@@ -1359,10 +1384,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
         <v>269395</v>
@@ -1379,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="7">
         <v>269395</v>
@@ -1399,10 +1424,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="7">
         <v>269395</v>
@@ -1419,10 +1444,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="7">
         <v>269395</v>
@@ -1439,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>269396</v>
@@ -1459,10 +1484,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1">
         <v>269396</v>
@@ -1479,10 +1504,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1">
         <v>269396</v>
@@ -1499,10 +1524,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>269396</v>
@@ -1519,10 +1544,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>269396</v>
@@ -1539,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <v>269401</v>
@@ -1559,10 +1584,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1">
         <v>269401</v>
@@ -1579,10 +1604,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>269401</v>
@@ -1598,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
         <v>269401</v>
@@ -1617,10 +1642,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1">
         <v>269401</v>
@@ -1636,10 +1661,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>269397</v>
@@ -1655,10 +1680,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>269397</v>
@@ -1674,10 +1699,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
         <v>269397</v>
@@ -1693,10 +1718,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
         <v>269397</v>
@@ -1712,10 +1737,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1">
         <v>269397</v>
@@ -1731,10 +1756,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1">
         <v>269403</v>
@@ -1750,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>269403</v>
@@ -1767,10 +1792,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1">
         <v>269403</v>
@@ -1784,10 +1809,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1">
         <v>269403</v>
@@ -1801,10 +1826,10 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <v>269403</v>
@@ -1818,10 +1843,10 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1">
         <v>269402</v>
@@ -1835,10 +1860,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1">
         <v>269402</v>
@@ -1852,10 +1877,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>269402</v>
@@ -1869,10 +1894,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1">
         <v>269402</v>
@@ -1886,10 +1911,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
         <v>269402</v>
@@ -1903,10 +1928,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1">
         <v>269399</v>
@@ -1920,10 +1945,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1">
         <v>269399</v>
@@ -1937,10 +1962,10 @@
         <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
         <v>269399</v>
@@ -1954,10 +1979,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>269399</v>
@@ -1971,16 +1996,84 @@
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1">
         <v>269399</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97229102-27E7-4550-91DD-BBA51E45052B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>int</t>
   </si>
@@ -84,18 +80,84 @@
     <t>BagItemName0001</t>
   </si>
   <si>
+    <t>BagItemDesc0001</t>
+  </si>
+  <si>
     <t>BagItemName0002</t>
   </si>
   <si>
+    <t>BagItemDesc0002</t>
+  </si>
+  <si>
     <t>BagItemName0003</t>
   </si>
   <si>
-    <t>BagItemDesc0001</t>
-  </si>
-  <si>
     <t>BagItemDesc0003</t>
   </si>
   <si>
+    <t>BoxingDragonName00041</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00042</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00043</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00044</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00045</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00051</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00052</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00046</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00047</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00048</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00049</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00050</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00053</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00054</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00006</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00007</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00008</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00009</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00010</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00026</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00027</t>
+  </si>
+  <si>
     <t>BoxingDragonName00001</t>
   </si>
   <si>
@@ -111,19 +173,31 @@
     <t>BoxingDragonName00005</t>
   </si>
   <si>
-    <t>BoxingDragonName00006</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00007</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00008</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00009</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00010</t>
+    <t>BoxingDragonName00021</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00022</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00016</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00017</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00018</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00019</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00020</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00036</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00037</t>
   </si>
   <si>
     <t>BoxingDragonName00011</t>
@@ -141,134 +215,31 @@
     <t>BoxingDragonName00015</t>
   </si>
   <si>
-    <t>BoxingDragonName00016</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00017</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00018</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00019</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00020</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00021</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00022</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00023</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00024</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00025</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00026</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00027</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00028</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00029</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00030</t>
-  </si>
-  <si>
     <t>BoxingDragonName00031</t>
   </si>
   <si>
     <t>BoxingDragonName00032</t>
   </si>
   <si>
-    <t>BoxingDragonName00033</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00034</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00035</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00036</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00037</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00038</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00039</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00040</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00041</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00042</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00043</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00044</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00045</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00046</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00047</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00048</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00049</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00050</t>
-  </si>
-  <si>
     <t>HomeResourcesName0001</t>
   </si>
   <si>
+    <t>HomeResourcesDesc0001</t>
+  </si>
+  <si>
     <t>HomeResourcesName0002</t>
   </si>
   <si>
+    <t>HomeResourcesDesc0002</t>
+  </si>
+  <si>
     <t>HomeResourcesName0003</t>
   </si>
   <si>
+    <t>HomeResourcesDesc0003</t>
+  </si>
+  <si>
     <t>HomeResourcesName0004</t>
-  </si>
-  <si>
-    <t>BagItemDesc0002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0001</t>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0002</t>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0003</t>
   </si>
   <si>
     <t>HomeResourcesDesc0004</t>
@@ -277,35 +248,372 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,17 +621,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -341,174 +891,89 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -522,7 +987,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -550,40 +1015,170 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399945066682943"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{11E50F74-8B36-4818-B1F1-73927B292376}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{23421716-0377-485E-B264-22EB29A367D6}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -793,23 +1388,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="40.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -823,7 +1418,7 @@
     <col min="15" max="17" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,7 +1431,7 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3"/>
@@ -845,7 +1440,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,7 +1453,7 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3"/>
@@ -867,7 +1462,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -880,7 +1475,7 @@
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3"/>
@@ -891,16 +1486,16 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:8">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -913,7 +1508,7 @@
       <c r="D5" s="7">
         <v>222920</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="6"/>
@@ -921,20 +1516,20 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
         <v>267113</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
@@ -942,20 +1537,20 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
         <v>267114</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="6"/>
@@ -963,20 +1558,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="2" customFormat="1" spans="1:9">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
         <v>267112</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="6"/>
@@ -984,20 +1579,20 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" spans="1:9">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>269400</v>
-      </c>
-      <c r="E9" s="1">
+        <v>326248</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
@@ -1005,20 +1600,20 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" s="2" customFormat="1" spans="1:9">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>269400</v>
-      </c>
-      <c r="E10" s="1">
+        <v>326241</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
@@ -1026,20 +1621,20 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" s="2" customFormat="1" spans="1:9">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>269400</v>
-      </c>
-      <c r="E11" s="1">
+        <v>326262</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="6"/>
@@ -1047,20 +1642,20 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>269400</v>
-      </c>
-      <c r="E12" s="1">
+        <v>326267</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
@@ -1068,20 +1663,20 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" spans="1:17">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>269400</v>
-      </c>
-      <c r="E13" s="1">
+        <v>326252</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="5"/>
@@ -1096,20 +1691,20 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" s="2" customFormat="1" spans="1:17">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>269394</v>
-      </c>
-      <c r="E14" s="1">
+        <v>326251</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -1125,20 +1720,20 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="2" customFormat="1" spans="1:17">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>269394</v>
-      </c>
-      <c r="E15" s="1">
+        <v>326271</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
@@ -1154,20 +1749,20 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="2" customFormat="1" spans="1:17">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>269394</v>
-      </c>
-      <c r="E16" s="1">
+        <v>326237</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
@@ -1183,20 +1778,20 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" spans="1:17">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>269394</v>
-      </c>
-      <c r="E17" s="1">
+        <v>326236</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="5"/>
@@ -1212,20 +1807,20 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" s="2" customFormat="1" spans="1:17">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>269394</v>
-      </c>
-      <c r="E18" s="1">
+        <v>326240</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="5"/>
@@ -1241,20 +1836,20 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" s="2" customFormat="1" spans="1:17">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>269398</v>
-      </c>
-      <c r="E19" s="1">
+        <v>326246</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="5"/>
@@ -1270,20 +1865,20 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="2" customFormat="1" spans="1:17">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>269398</v>
-      </c>
-      <c r="E20" s="1">
+        <v>326245</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="5"/>
@@ -1299,787 +1894,650 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="2" customFormat="1" spans="1:9">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>269398</v>
-      </c>
-      <c r="E21" s="1">
+        <v>326253</v>
+      </c>
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" spans="1:9">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>269398</v>
-      </c>
-      <c r="E22" s="1">
+        <v>326244</v>
+      </c>
+      <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" s="2" customFormat="1" spans="1:9">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
-        <v>269398</v>
-      </c>
-      <c r="E23" s="1">
+        <v>326270</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" s="2" customFormat="1" spans="1:9">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>269395</v>
-      </c>
-      <c r="E24" s="1">
+        <v>326272</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="2" customFormat="1" spans="1:9">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7">
-        <v>269395</v>
-      </c>
-      <c r="E25" s="1">
+        <v>326264</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="2" customFormat="1" spans="1:9">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>269395</v>
-      </c>
-      <c r="E26" s="1">
+        <v>326263</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" s="2" customFormat="1" spans="1:9">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7">
-        <v>269395</v>
-      </c>
-      <c r="E27" s="1">
+        <v>326261</v>
+      </c>
+      <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" s="2" customFormat="1" spans="1:9">
+      <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>269395</v>
-      </c>
-      <c r="E28" s="1">
+        <v>326269</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="2" customFormat="1" spans="1:9">
       <c r="A29" s="5">
         <v>24</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1">
-        <v>269396</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2">
+        <v>326258</v>
+      </c>
+      <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" s="2" customFormat="1" spans="1:9">
+      <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1">
-        <v>269396</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2">
+        <v>326243</v>
+      </c>
+      <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" s="2" customFormat="1" spans="1:9">
+      <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1">
-        <v>269396</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2">
+        <v>326250</v>
+      </c>
+      <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="2" customFormat="1" spans="1:9">
       <c r="A32" s="5">
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1">
-        <v>269396</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2">
+        <v>326249</v>
+      </c>
+      <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" s="2" customFormat="1" spans="1:9">
+      <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1">
-        <v>269396</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2">
+        <v>326238</v>
+      </c>
+      <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" s="2" customFormat="1" spans="1:9">
+      <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="1">
-        <v>269401</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2">
+        <v>326276</v>
+      </c>
+      <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" s="2" customFormat="1" spans="1:9">
+      <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="1">
-        <v>269401</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2">
+        <v>326268</v>
+      </c>
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" s="2" customFormat="1" spans="1:7">
+      <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="1">
-        <v>269401</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2">
+        <v>326279</v>
+      </c>
+      <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="2" customFormat="1" spans="1:7">
       <c r="A37" s="5">
         <v>32</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="1">
-        <v>269401</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2">
+        <v>326242</v>
+      </c>
+      <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" s="2" customFormat="1" spans="1:7">
+      <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="1">
-        <v>269401</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2">
+        <v>326277</v>
+      </c>
+      <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" s="2" customFormat="1" spans="1:7">
+      <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="1">
-        <v>269397</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="2">
+        <v>326275</v>
+      </c>
+      <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="2" customFormat="1" spans="1:7">
       <c r="A40" s="5">
         <v>35</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="1">
-        <v>269397</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2">
+        <v>326265</v>
+      </c>
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" s="2" customFormat="1" spans="1:7">
+      <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="1">
-        <v>269397</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2">
+        <v>326239</v>
+      </c>
+      <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" s="2" customFormat="1" spans="1:7">
+      <c r="A42" s="2">
         <v>37</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="1">
-        <v>269397</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="2">
+        <v>326274</v>
+      </c>
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" s="2" customFormat="1" spans="1:7">
+      <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="1">
-        <v>269397</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2">
+        <v>326260</v>
+      </c>
+      <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" s="2" customFormat="1" spans="1:7">
+      <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="1">
-        <v>269403</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="2">
+        <v>326255</v>
+      </c>
+      <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="2" customFormat="1" spans="1:5">
       <c r="A45" s="5">
         <v>40</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="1">
-        <v>269403</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="2">
+        <v>326259</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>41</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="1">
-        <v>269403</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="B46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="2">
+        <v>326273</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>42</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="1">
-        <v>269403</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="2">
+        <v>326278</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="5">
         <v>43</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1">
-        <v>269403</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="B48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2">
+        <v>326257</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>44</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="1">
-        <v>269402</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="2">
+        <v>326266</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="1">
-        <v>269402</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="B50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="2">
+        <v>326256</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>46</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="1">
-        <v>269402</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>47</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="1">
-        <v>269402</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>48</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="1">
-        <v>269402</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="B53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="7">
+        <v>222920</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
         <v>49</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="1">
-        <v>269399</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
-        <v>50</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="1">
-        <v>269399</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>51</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="1">
-        <v>269399</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>52</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="1">
-        <v>269399</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>53</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="1">
-        <v>269399</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>54</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="D54" s="7">
         <v>222920</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E54" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
-        <v>55</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="7">
-        <v>222920</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>56</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="7">
-        <v>222920</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>57</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="7">
-        <v>222920</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -1,44 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1A2A3-FB98-4807-9ED1-672B093FB050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="Constant" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Constant" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId1"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="MaxCount">Constant!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>int</t>
   </si>
@@ -70,13 +53,13 @@
     <t>achievable</t>
   </si>
   <si>
-    <t>背包物品 ID</t>
+    <t xml:space="preserve">背包物品 ID</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>VIEW_ONLY 不要更改或使用此列</t>
+    <t xml:space="preserve">VIEW_ONLY 不要更改或使用此列</t>
   </si>
   <si>
     <t>描述</t>
@@ -271,32 +254,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,43 +282,43 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -356,22 +329,34 @@
         <b/>
         <color theme="1"/>
       </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79992065187536243"/>
           <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -381,78 +366,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top style="thin">
+        <left style="none"/>
+        <right style="none"/>
+        <top style="double">
           <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <bottom style="none"/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -460,12 +384,22 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
         <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <diagonal/>
+        <horizontal style="thin">
           <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -489,21 +423,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
-          <color theme="4"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </horizontal>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -512,13 +438,79 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top style="double">
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
           <color theme="4"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <diagonal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -529,67 +521,53 @@
     <dxf>
       <font>
         <b/>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79992065187536243"/>
           <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </bottom>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7">
+      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="1"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10">
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
+      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,9 +576,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="译文-1"/>
       <sheetName val="WpsReserved_CellImgList"/>
@@ -613,8 +588,315 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -817,37 +1099,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S500"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="5" width="40.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="42.875" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="23.375" customWidth="1"/>
-    <col min="16" max="16" width="51.25" customWidth="1"/>
-    <col min="17" max="19" width="17.125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.625"/>
+    <col customWidth="1" min="2" max="5" style="1" width="40.625"/>
+    <col customWidth="1" min="6" max="6" style="1" width="18.625"/>
+    <col customWidth="1" min="7" max="7" width="10.75"/>
+    <col customWidth="1" min="8" max="8" width="16.125"/>
+    <col customWidth="1" min="9" max="9" width="15"/>
+    <col customWidth="1" min="10" max="10" width="17.125"/>
+    <col customWidth="1" min="11" max="11" width="16.25"/>
+    <col customWidth="1" min="12" max="12" width="42.875"/>
+    <col customWidth="1" min="13" max="13" width="13.625"/>
+    <col customWidth="1" min="14" max="14" width="16.125"/>
+    <col customWidth="1" min="15" max="15" width="23.375"/>
+    <col customWidth="1" min="16" max="16" width="51.25"/>
+    <col customWidth="1" min="17" max="19" width="17.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,7 +1155,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -903,7 +1183,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -933,7 +1213,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -942,7 +1222,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -950,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B5,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B5,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D5" s="7" t="s">
@@ -971,7 +1251,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -979,7 +1259,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B6,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B6,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D6" s="7" t="s">
@@ -1000,7 +1280,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1008,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B7,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B7,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D7" s="7" t="s">
@@ -1029,7 +1309,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="1" customFormat="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1037,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B8,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B8,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D8" s="7" t="s">
@@ -1058,7 +1338,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1066,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B9,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B9,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D9" s="6" t="s">
@@ -1087,7 +1367,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1095,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B10,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B10,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D10" s="6" t="s">
@@ -1116,7 +1396,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1124,7 +1404,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B11,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B11,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D11" s="6" t="s">
@@ -1145,7 +1425,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1153,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B12,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B12,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D12" s="6" t="s">
@@ -1174,7 +1454,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="1" customFormat="1">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1182,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B13,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B13,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D13" s="6" t="s">
@@ -1210,7 +1490,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1218,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B14,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B14,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D14" s="6" t="s">
@@ -1247,7 +1527,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="1" customFormat="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1255,7 +1535,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B15,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B15,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D15" s="6" t="s">
@@ -1284,7 +1564,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="1" customFormat="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -1292,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B16,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B16,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D16" s="6" t="s">
@@ -1321,7 +1601,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1329,7 +1609,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B17,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B17,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D17" s="6" t="s">
@@ -1358,7 +1638,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="1" customFormat="1">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1366,7 +1646,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B18,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B18,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D18" s="6" t="s">
@@ -1395,7 +1675,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1403,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B19,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B19,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D19" s="6" t="s">
@@ -1432,7 +1712,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="1" customFormat="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -1440,7 +1720,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B20,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B20,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D20" s="6" t="s">
@@ -1469,7 +1749,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="1" customFormat="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -1477,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B21,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B21,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D21" s="6" t="s">
@@ -1497,7 +1777,7 @@
       <c r="I21" s="6"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1505,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B22,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B22,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D22" s="6" t="s">
@@ -1525,7 +1805,7 @@
       <c r="I22" s="6"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1533,7 +1813,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B23,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B23,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D23" s="6" t="s">
@@ -1553,7 +1833,7 @@
       <c r="I23" s="6"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="1" customFormat="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1561,7 +1841,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B24,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B24,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D24" s="6" t="s">
@@ -1581,7 +1861,7 @@
       <c r="I24" s="6"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="1" customFormat="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -1589,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B25,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B25,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D25" s="6" t="s">
@@ -1609,7 +1889,7 @@
       <c r="I25" s="6"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="1" customFormat="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -1617,7 +1897,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B26,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B26,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D26" s="6" t="s">
@@ -1637,7 +1917,7 @@
       <c r="I26" s="6"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1645,7 +1925,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B27,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B27,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D27" s="6" t="s">
@@ -1665,7 +1945,7 @@
       <c r="I27" s="6"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1673,7 +1953,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B28,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B28,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D28" s="6" t="s">
@@ -1693,7 +1973,7 @@
       <c r="I28" s="6"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="1" customFormat="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
@@ -1701,7 +1981,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B29,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B29,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D29" s="1" t="s">
@@ -1721,7 +2001,7 @@
       <c r="I29" s="6"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1729,7 +2009,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B30,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B30,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D30" s="1" t="s">
@@ -1749,7 +2029,7 @@
       <c r="I30" s="6"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1757,7 +2037,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B31,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B31,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D31" s="1" t="s">
@@ -1777,7 +2057,7 @@
       <c r="I31" s="6"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="1" customFormat="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
@@ -1785,7 +2065,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B32,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B32,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D32" s="1" t="s">
@@ -1805,7 +2085,7 @@
       <c r="I32" s="6"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="1" customFormat="1">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -1813,7 +2093,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B33,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B33,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D33" s="1" t="s">
@@ -1833,7 +2113,7 @@
       <c r="I33" s="6"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="1" customFormat="1">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1841,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B34,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B34,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D34" s="1" t="s">
@@ -1861,7 +2141,7 @@
       <c r="I34" s="6"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -1869,7 +2149,7 @@
         <v>51</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B35,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B35,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D35" s="1" t="s">
@@ -1889,7 +2169,7 @@
       <c r="I35" s="6"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -1897,7 +2177,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B36,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B36,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D36" s="1" t="s">
@@ -1916,7 +2196,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="1" customFormat="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
@@ -1924,7 +2204,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B37,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B37,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D37" s="1" t="s">
@@ -1943,7 +2223,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -1951,7 +2231,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B38,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B38,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D38" s="1" t="s">
@@ -1970,7 +2250,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>34</v>
       </c>
@@ -1978,7 +2258,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B39,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B39,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D39" s="1" t="s">
@@ -1997,7 +2277,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="1" customFormat="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
@@ -2005,7 +2285,7 @@
         <v>56</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B40,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B40,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D40" s="1" t="s">
@@ -2024,7 +2304,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="1" customFormat="1">
       <c r="A41" s="1">
         <v>36</v>
       </c>
@@ -2032,7 +2312,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B41,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B41,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D41" s="1" t="s">
@@ -2051,7 +2331,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="1" customFormat="1">
       <c r="A42" s="1">
         <v>37</v>
       </c>
@@ -2059,7 +2339,7 @@
         <v>58</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B42,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B42,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D42" s="1" t="s">
@@ -2078,7 +2358,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="1" customFormat="1">
       <c r="A43" s="1">
         <v>38</v>
       </c>
@@ -2086,7 +2366,7 @@
         <v>59</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B43,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B43,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D43" s="1" t="s">
@@ -2105,7 +2385,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>39</v>
       </c>
@@ -2113,7 +2393,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B44,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B44,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D44" s="1" t="s">
@@ -2132,7 +2412,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="1" customFormat="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
@@ -2140,7 +2420,7 @@
         <v>61</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B45,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B45,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D45" s="1" t="s">
@@ -2157,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -2165,7 +2445,7 @@
         <v>62</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B46,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B46,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D46" s="1" t="s">
@@ -2182,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -2190,7 +2470,7 @@
         <v>63</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B47,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B47,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D47" s="1" t="s">
@@ -2207,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48">
       <c r="A48" s="6">
         <v>43</v>
       </c>
@@ -2215,7 +2495,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B48,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B48,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D48" s="1" t="s">
@@ -2232,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -2240,7 +2520,7 @@
         <v>65</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B49,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B49,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D49" s="1" t="s">
@@ -2257,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -2265,7 +2545,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B50,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B50,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D50" s="1" t="s">
@@ -2282,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -2290,7 +2570,7 @@
         <v>67</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B51,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B51,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D51" s="1" t="s">
@@ -2307,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -2315,7 +2595,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B52,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B52,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D52" s="1" t="s">
@@ -2332,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -2340,7 +2620,7 @@
         <v>71</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B53,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B53,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D53" s="1" t="s">
@@ -2357,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="A54" s="1">
         <v>49</v>
       </c>
@@ -2365,7 +2645,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B54,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B54,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D54" s="1" t="s">
@@ -2382,9 +2662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="C55" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B55,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B55,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E55" s="1" t="str">
@@ -2392,9 +2672,9 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56">
       <c r="C56" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B56,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B56,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E56" s="1" t="str">
@@ -2402,9 +2682,9 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="C57" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B57,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B57,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E57" s="1" t="str">
@@ -2412,9 +2692,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="C58" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B58,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B58,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E58" s="1" t="str">
@@ -2422,9 +2702,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="C59" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B59,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B59,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E59" s="1" t="str">
@@ -2432,9 +2712,9 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="C60" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B60,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B60,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E60" s="1" t="str">
@@ -2442,9 +2722,9 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="C61" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B61,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B61,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E61" s="1" t="str">
@@ -2452,9 +2732,9 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="C62" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B62,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B62,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E62" s="1" t="str">
@@ -2462,9 +2742,9 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="C63" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B63,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B63,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E63" s="1" t="str">
@@ -2472,9 +2752,9 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="C64" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B64,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B64,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E64" s="1" t="str">
@@ -2482,9 +2762,9 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="C65" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B65,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B65,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E65" s="1" t="str">
@@ -2492,9 +2772,9 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="C66" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B66,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B66,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E66" s="1" t="str">
@@ -2502,9 +2782,9 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="C67" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B67,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B67,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E67" s="1" t="str">
@@ -2512,9 +2792,9 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="68">
       <c r="C68" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B68,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B68,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E68" s="1" t="str">
@@ -2522,9 +2802,9 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="C69" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B69,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B69,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E69" s="1" t="str">
@@ -2532,9 +2812,9 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="70">
       <c r="C70" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B70,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B70,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E70" s="1" t="str">
@@ -2542,9 +2822,9 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="71">
       <c r="C71" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B71,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B71,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E71" s="1" t="str">
@@ -2552,9 +2832,9 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="72">
       <c r="C72" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B72,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B72,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E72" s="1" t="str">
@@ -2562,9 +2842,9 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="73">
       <c r="C73" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B73,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B73,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E73" s="1" t="str">
@@ -2572,9 +2852,9 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="74">
       <c r="C74" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B74,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B74,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E74" s="1" t="str">
@@ -2582,9 +2862,9 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="75">
       <c r="C75" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B75,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B75,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E75" s="1" t="str">
@@ -2592,9 +2872,9 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="76">
       <c r="C76" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B76,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B76,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E76" s="1" t="str">
@@ -2602,9 +2882,9 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="77">
       <c r="C77" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B77,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B77,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E77" s="1" t="str">
@@ -2612,9 +2892,9 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="78">
       <c r="C78" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B78,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B78,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E78" s="1" t="str">
@@ -2622,9 +2902,9 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="79">
       <c r="C79" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B79,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B79,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E79" s="1" t="str">
@@ -2632,9 +2912,9 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="80">
       <c r="C80" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B80,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B80,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E80" s="1" t="str">
@@ -2642,9 +2922,9 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="81">
       <c r="C81" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B81,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B81,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E81" s="1" t="str">
@@ -2652,9 +2932,9 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="82">
       <c r="C82" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B82,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B82,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E82" s="1" t="str">
@@ -2662,9 +2942,9 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="83">
       <c r="C83" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B83,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B83,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E83" s="1" t="str">
@@ -2672,9 +2952,9 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="84">
       <c r="C84" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B84,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B84,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E84" s="1" t="str">
@@ -2682,9 +2962,9 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="85">
       <c r="C85" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B85,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B85,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E85" s="1" t="str">
@@ -2692,9 +2972,9 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="86">
       <c r="C86" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B86,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B86,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E86" s="1" t="str">
@@ -2702,9 +2982,9 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="87">
       <c r="C87" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B87,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B87,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E87" s="1" t="str">
@@ -2712,9 +2992,9 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="88">
       <c r="C88" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B88,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B88,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E88" s="1" t="str">
@@ -2722,9 +3002,9 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="89">
       <c r="C89" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B89,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B89,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E89" s="1" t="str">
@@ -2732,9 +3012,9 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="90">
       <c r="C90" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B90,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B90,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E90" s="1" t="str">
@@ -2742,9 +3022,9 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="91">
       <c r="C91" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B91,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B91,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E91" s="1" t="str">
@@ -2752,9 +3032,9 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="92">
       <c r="C92" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B92,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B92,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E92" s="1" t="str">
@@ -2762,9 +3042,9 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="93">
       <c r="C93" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B93,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B93,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E93" s="1" t="str">
@@ -2772,9 +3052,9 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="94">
       <c r="C94" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B94,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B94,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E94" s="1" t="str">
@@ -2782,9 +3062,9 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="95">
       <c r="C95" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B95,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B95,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E95" s="1" t="str">
@@ -2792,9 +3072,9 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="96">
       <c r="C96" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B96,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B96,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E96" s="1" t="str">
@@ -2802,9 +3082,9 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="97">
       <c r="C97" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B97,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B97,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E97" s="1" t="str">
@@ -2812,9 +3092,9 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="98">
       <c r="C98" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B98,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B98,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E98" s="1" t="str">
@@ -2822,9 +3102,9 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="99">
       <c r="C99" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B99,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B99,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E99" s="1" t="str">
@@ -2832,9 +3112,9 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="100">
       <c r="C100" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B100,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B100,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E100" s="1" t="str">
@@ -2842,9 +3122,9 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="101">
       <c r="C101" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B101,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B101,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E101" s="1" t="str">
@@ -2852,9 +3132,9 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="102">
       <c r="C102" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B102,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B102,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E102" s="1" t="str">
@@ -2862,9 +3142,9 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="103">
       <c r="C103" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B103,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B103,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E103" s="1" t="str">
@@ -2872,9 +3152,9 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="104">
       <c r="C104" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B104,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B104,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E104" s="1" t="str">
@@ -2882,9 +3162,9 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="105">
       <c r="C105" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B105,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B105,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E105" s="1" t="str">
@@ -2892,9 +3172,9 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="106">
       <c r="C106" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B106,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B106,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E106" s="1" t="str">
@@ -2902,9 +3182,9 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="107">
       <c r="C107" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B107,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B107,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E107" s="1" t="str">
@@ -2912,9 +3192,9 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="108">
       <c r="C108" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B108,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B108,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E108" s="1" t="str">
@@ -2922,9 +3202,9 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="109">
       <c r="C109" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B109,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B109,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E109" s="1" t="str">
@@ -2932,9 +3212,9 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="110">
       <c r="C110" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B110,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B110,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E110" s="1" t="str">
@@ -2942,9 +3222,9 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="111">
       <c r="C111" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B111,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B111,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E111" s="1" t="str">
@@ -2952,9 +3232,9 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="112">
       <c r="C112" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B112,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B112,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E112" s="1" t="str">
@@ -2962,9 +3242,9 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="113">
       <c r="C113" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B113,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B113,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E113" s="1" t="str">
@@ -2972,9 +3252,9 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="114">
       <c r="C114" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B114,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B114,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E114" s="1" t="str">
@@ -2982,9 +3262,9 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="115">
       <c r="C115" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B115,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B115,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E115" s="1" t="str">
@@ -2992,9 +3272,9 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="116">
       <c r="C116" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B116,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B116,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E116" s="1" t="str">
@@ -3002,9 +3282,9 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="117">
       <c r="C117" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B117,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B117,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E117" s="1" t="str">
@@ -3012,9 +3292,9 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="118">
       <c r="C118" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B118,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B118,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E118" s="1" t="str">
@@ -3022,9 +3302,9 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="119">
       <c r="C119" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B119,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B119,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E119" s="1" t="str">
@@ -3032,9 +3312,9 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="120">
       <c r="C120" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B120,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B120,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E120" s="1" t="str">
@@ -3042,9 +3322,9 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="121">
       <c r="C121" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B121,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B121,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E121" s="1" t="str">
@@ -3052,9 +3332,9 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="122">
       <c r="C122" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B122,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B122,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E122" s="1" t="str">
@@ -3062,9 +3342,9 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="123">
       <c r="C123" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B123,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B123,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E123" s="1" t="str">
@@ -3072,9 +3352,9 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="124">
       <c r="C124" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B124,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B124,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E124" s="1" t="str">
@@ -3082,9 +3362,9 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="125">
       <c r="C125" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B125,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B125,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E125" s="1" t="str">
@@ -3092,9 +3372,9 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="126">
       <c r="C126" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B126,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B126,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E126" s="1" t="str">
@@ -3102,9 +3382,9 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="127">
       <c r="C127" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B127,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B127,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E127" s="1" t="str">
@@ -3112,9 +3392,9 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="128">
       <c r="C128" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B128,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B128,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E128" s="1" t="str">
@@ -3122,9 +3402,9 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="129">
       <c r="C129" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B129,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B129,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E129" s="1" t="str">
@@ -3132,9 +3412,9 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="130">
       <c r="C130" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B130,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B130,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E130" s="1" t="str">
@@ -3142,9 +3422,9 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="131">
       <c r="C131" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B131,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B131,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E131" s="1" t="str">
@@ -3152,9 +3432,9 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="132">
       <c r="C132" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B132,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B132,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E132" s="1" t="str">
@@ -3162,9 +3442,9 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="133">
       <c r="C133" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B133,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B133,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E133" s="1" t="str">
@@ -3172,9 +3452,9 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="134">
       <c r="C134" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B134,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B134,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E134" s="1" t="str">
@@ -3182,9 +3462,9 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="135">
       <c r="C135" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B135,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B135,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E135" s="1" t="str">
@@ -3192,9 +3472,9 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="136">
       <c r="C136" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B136,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B136,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E136" s="1" t="str">
@@ -3202,9 +3482,9 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="137">
       <c r="C137" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B137,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B137,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E137" s="1" t="str">
@@ -3212,9 +3492,9 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="138">
       <c r="C138" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B138,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B138,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E138" s="1" t="str">
@@ -3222,9 +3502,9 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="139">
       <c r="C139" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B139,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B139,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E139" s="1" t="str">
@@ -3232,9 +3512,9 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="140">
       <c r="C140" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B140,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B140,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E140" s="1" t="str">
@@ -3242,9 +3522,9 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="141">
       <c r="C141" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B141,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B141,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E141" s="1" t="str">
@@ -3252,9 +3532,9 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="142">
       <c r="C142" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B142,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B142,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E142" s="1" t="str">
@@ -3262,9 +3542,9 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="143">
       <c r="C143" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B143,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B143,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E143" s="1" t="str">
@@ -3272,9 +3552,9 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="144">
       <c r="C144" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B144,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B144,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E144" s="1" t="str">
@@ -3282,9 +3562,9 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="145">
       <c r="C145" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B145,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B145,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E145" s="1" t="str">
@@ -3292,9 +3572,9 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="146">
       <c r="C146" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B146,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B146,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E146" s="1" t="str">
@@ -3302,9 +3582,9 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="147">
       <c r="C147" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B147,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B147,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E147" s="1" t="str">
@@ -3312,9 +3592,9 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="148">
       <c r="C148" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B148,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B148,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E148" s="1" t="str">
@@ -3322,9 +3602,9 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="149">
       <c r="C149" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B149,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B149,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E149" s="1" t="str">
@@ -3332,9 +3612,9 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="150">
       <c r="C150" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B150,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B150,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E150" s="1" t="str">
@@ -3342,9 +3622,9 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="151">
       <c r="C151" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B151,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B151,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E151" s="1" t="str">
@@ -3352,9 +3632,9 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="152">
       <c r="C152" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B152,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B152,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E152" s="1" t="str">
@@ -3362,9 +3642,9 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="153">
       <c r="C153" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B153,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B153,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E153" s="1" t="str">
@@ -3372,9 +3652,9 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="154">
       <c r="C154" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B154,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B154,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E154" s="1" t="str">
@@ -3382,9 +3662,9 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="155">
       <c r="C155" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B155,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B155,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E155" s="1" t="str">
@@ -3392,9 +3672,9 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="156">
       <c r="C156" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B156,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B156,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E156" s="1" t="str">
@@ -3402,9 +3682,9 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="157">
       <c r="C157" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B157,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B157,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E157" s="1" t="str">
@@ -3412,9 +3692,9 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="158">
       <c r="C158" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B158,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B158,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E158" s="1" t="str">
@@ -3422,9 +3702,9 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="159">
       <c r="C159" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B159,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B159,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E159" s="1" t="str">
@@ -3432,9 +3712,9 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="160">
       <c r="C160" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B160,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B160,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E160" s="1" t="str">
@@ -3442,9 +3722,9 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="161">
       <c r="C161" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B161,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B161,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E161" s="1" t="str">
@@ -3452,9 +3732,9 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="162">
       <c r="C162" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B162,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B162,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E162" s="1" t="str">
@@ -3462,9 +3742,9 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="163">
       <c r="C163" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B163,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B163,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E163" s="1" t="str">
@@ -3472,9 +3752,9 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="164">
       <c r="C164" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B164,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B164,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E164" s="1" t="str">
@@ -3482,9 +3762,9 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="165">
       <c r="C165" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B165,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B165,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E165" s="1" t="str">
@@ -3492,9 +3772,9 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="166">
       <c r="C166" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B166,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B166,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E166" s="1" t="str">
@@ -3502,9 +3782,9 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="167">
       <c r="C167" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B167,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B167,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E167" s="1" t="str">
@@ -3512,9 +3792,9 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="168">
       <c r="C168" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B168,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B168,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E168" s="1" t="str">
@@ -3522,9 +3802,9 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="169">
       <c r="C169" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B169,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B169,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E169" s="1" t="str">
@@ -3532,9 +3812,9 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="170">
       <c r="C170" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B170,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B170,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E170" s="1" t="str">
@@ -3542,9 +3822,9 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="171">
       <c r="C171" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B171,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B171,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E171" s="1" t="str">
@@ -3552,9 +3832,9 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="172">
       <c r="C172" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B172,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B172,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E172" s="1" t="str">
@@ -3562,9 +3842,9 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="173">
       <c r="C173" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B173,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B173,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E173" s="1" t="str">
@@ -3572,9 +3852,9 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="174">
       <c r="C174" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B174,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B174,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E174" s="1" t="str">
@@ -3582,9 +3862,9 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="175">
       <c r="C175" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B175,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B175,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E175" s="1" t="str">
@@ -3592,9 +3872,9 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="176">
       <c r="C176" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B176,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B176,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E176" s="1" t="str">
@@ -3602,9 +3882,9 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="177">
       <c r="C177" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B177,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B177,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E177" s="1" t="str">
@@ -3612,9 +3892,9 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="178">
       <c r="C178" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B178,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B178,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E178" s="1" t="str">
@@ -3622,9 +3902,9 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="179">
       <c r="C179" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B179,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B179,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E179" s="1" t="str">
@@ -3632,9 +3912,9 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="180">
       <c r="C180" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B180,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B180,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E180" s="1" t="str">
@@ -3642,9 +3922,9 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="181">
       <c r="C181" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B181,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B181,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E181" s="1" t="str">
@@ -3652,9 +3932,9 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="182">
       <c r="C182" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B182,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B182,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E182" s="1" t="str">
@@ -3662,9 +3942,9 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="183">
       <c r="C183" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B183,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B183,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E183" s="1" t="str">
@@ -3672,9 +3952,9 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="184">
       <c r="C184" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B184,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B184,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E184" s="1" t="str">
@@ -3682,9 +3962,9 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="185">
       <c r="C185" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B185,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B185,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E185" s="1" t="str">
@@ -3692,9 +3972,9 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="186">
       <c r="C186" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B186,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B186,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E186" s="1" t="str">
@@ -3702,9 +3982,9 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="187">
       <c r="C187" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B187,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B187,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E187" s="1" t="str">
@@ -3712,9 +3992,9 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="188">
       <c r="C188" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B188,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B188,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E188" s="1" t="str">
@@ -3722,9 +4002,9 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="189">
       <c r="C189" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B189,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B189,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E189" s="1" t="str">
@@ -3732,9 +4012,9 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="190">
       <c r="C190" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B190,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B190,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E190" s="1" t="str">
@@ -3742,9 +4022,9 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="191">
       <c r="C191" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B191,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B191,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E191" s="1" t="str">
@@ -3752,9 +4032,9 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="192">
       <c r="C192" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B192,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B192,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E192" s="1" t="str">
@@ -3762,9 +4042,9 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="193">
       <c r="C193" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B193,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B193,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E193" s="1" t="str">
@@ -3772,9 +4052,9 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="194">
       <c r="C194" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B194,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B194,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E194" s="1" t="str">
@@ -3782,9 +4062,9 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="195">
       <c r="C195" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B195,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B195,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E195" s="1" t="str">
@@ -3792,9 +4072,9 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="196">
       <c r="C196" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B196,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B196,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E196" s="1" t="str">
@@ -3802,9 +4082,9 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="197">
       <c r="C197" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B197,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B197,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E197" s="1" t="str">
@@ -3812,9 +4092,9 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="198">
       <c r="C198" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B198,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B198,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E198" s="1" t="str">
@@ -3822,9 +4102,9 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="199">
       <c r="C199" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B199,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B199,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E199" s="1" t="str">
@@ -3832,9 +4112,9 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="200">
       <c r="C200" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B200,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B200,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E200" s="1" t="str">
@@ -3842,9 +4122,9 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="201">
       <c r="C201" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B201,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B201,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E201" s="1" t="str">
@@ -3852,9 +4132,9 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="202">
       <c r="C202" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B202,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B202,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E202" s="1" t="str">
@@ -3862,9 +4142,9 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="203">
       <c r="C203" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B203,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B203,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E203" s="1" t="str">
@@ -3872,9 +4152,9 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="204">
       <c r="C204" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B204,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B204,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E204" s="1" t="str">
@@ -3882,9 +4162,9 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="205">
       <c r="C205" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B205,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B205,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E205" s="1" t="str">
@@ -3892,9 +4172,9 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="206">
       <c r="C206" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B206,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B206,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E206" s="1" t="str">
@@ -3902,9 +4182,9 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="207">
       <c r="C207" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B207,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B207,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E207" s="1" t="str">
@@ -3912,9 +4192,9 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="208">
       <c r="C208" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B208,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B208,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E208" s="1" t="str">
@@ -3922,9 +4202,9 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="209">
       <c r="C209" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B209,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B209,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E209" s="1" t="str">
@@ -3932,9 +4212,9 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="210">
       <c r="C210" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B210,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B210,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E210" s="1" t="str">
@@ -3942,9 +4222,9 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="211">
       <c r="C211" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B211,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B211,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E211" s="1" t="str">
@@ -3952,9 +4232,9 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="212">
       <c r="C212" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B212,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B212,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E212" s="1" t="str">
@@ -3962,9 +4242,9 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="213">
       <c r="C213" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B213,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B213,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E213" s="1" t="str">
@@ -3972,9 +4252,9 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="214">
       <c r="C214" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B214,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B214,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E214" s="1" t="str">
@@ -3982,9 +4262,9 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="215">
       <c r="C215" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B215,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B215,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E215" s="1" t="str">
@@ -3992,9 +4272,9 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="216">
       <c r="C216" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B216,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B216,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E216" s="1" t="str">
@@ -4002,9 +4282,9 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="217">
       <c r="C217" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B217,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B217,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E217" s="1" t="str">
@@ -4012,9 +4292,9 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="218">
       <c r="C218" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B218,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B218,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E218" s="1" t="str">
@@ -4022,9 +4302,9 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="219">
       <c r="C219" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B219,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B219,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E219" s="1" t="str">
@@ -4032,9 +4312,9 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="220">
       <c r="C220" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B220,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B220,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E220" s="1" t="str">
@@ -4042,9 +4322,9 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="221">
       <c r="C221" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B221,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B221,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E221" s="1" t="str">
@@ -4052,9 +4332,9 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="222">
       <c r="C222" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B222,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B222,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E222" s="1" t="str">
@@ -4062,9 +4342,9 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="223">
       <c r="C223" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B223,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B223,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E223" s="1" t="str">
@@ -4072,9 +4352,9 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="224">
       <c r="C224" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B224,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B224,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E224" s="1" t="str">
@@ -4082,9 +4362,9 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="225">
       <c r="C225" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B225,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B225,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E225" s="1" t="str">
@@ -4092,9 +4372,9 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="226">
       <c r="C226" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B226,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B226,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E226" s="1" t="str">
@@ -4102,9 +4382,9 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="227">
       <c r="C227" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B227,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B227,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E227" s="1" t="str">
@@ -4112,9 +4392,9 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="228">
       <c r="C228" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B228,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B228,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E228" s="1" t="str">
@@ -4122,9 +4402,9 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="229">
       <c r="C229" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B229,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B229,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E229" s="1" t="str">
@@ -4132,9 +4412,9 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="230">
       <c r="C230" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B230,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B230,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E230" s="1" t="str">
@@ -4142,9 +4422,9 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="231">
       <c r="C231" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B231,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B231,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E231" s="1" t="str">
@@ -4152,9 +4432,9 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="232">
       <c r="C232" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B232,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B232,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E232" s="1" t="str">
@@ -4162,9 +4442,9 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="233">
       <c r="C233" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B233,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B233,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E233" s="1" t="str">
@@ -4172,9 +4452,9 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="234">
       <c r="C234" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B234,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B234,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E234" s="1" t="str">
@@ -4182,9 +4462,9 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="235">
       <c r="C235" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B235,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B235,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E235" s="1" t="str">
@@ -4192,9 +4472,9 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="236">
       <c r="C236" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B236,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B236,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E236" s="1" t="str">
@@ -4202,9 +4482,9 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="237">
       <c r="C237" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B237,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B237,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E237" s="1" t="str">
@@ -4212,9 +4492,9 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="238">
       <c r="C238" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B238,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B238,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E238" s="1" t="str">
@@ -4222,9 +4502,9 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="239">
       <c r="C239" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B239,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B239,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E239" s="1" t="str">
@@ -4232,9 +4512,9 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="240">
       <c r="C240" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B240,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B240,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E240" s="1" t="str">
@@ -4242,9 +4522,9 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="241">
       <c r="C241" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B241,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B241,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E241" s="1" t="str">
@@ -4252,9 +4532,9 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="242">
       <c r="C242" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B242,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B242,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E242" s="1" t="str">
@@ -4262,9 +4542,9 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="243">
       <c r="C243" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B243,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B243,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E243" s="1" t="str">
@@ -4272,9 +4552,9 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="244">
       <c r="C244" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B244,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B244,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E244" s="1" t="str">
@@ -4282,9 +4562,9 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="245">
       <c r="C245" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B245,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B245,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E245" s="1" t="str">
@@ -4292,9 +4572,9 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="246">
       <c r="C246" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B246,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B246,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E246" s="1" t="str">
@@ -4302,9 +4582,9 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="247">
       <c r="C247" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B247,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B247,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E247" s="1" t="str">
@@ -4312,9 +4592,9 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="248">
       <c r="C248" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B248,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B248,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E248" s="1" t="str">
@@ -4322,9 +4602,9 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="249">
       <c r="C249" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B249,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B249,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E249" s="1" t="str">
@@ -4332,9 +4612,9 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="250">
       <c r="C250" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B250,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B250,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E250" s="1" t="str">
@@ -4342,9 +4622,9 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="251">
       <c r="C251" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B251,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B251,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E251" s="1" t="str">
@@ -4352,9 +4632,9 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="252">
       <c r="C252" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B252,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B252,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E252" s="1" t="str">
@@ -4362,9 +4642,9 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="253">
       <c r="C253" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B253,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B253,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E253" s="1" t="str">
@@ -4372,9 +4652,9 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="254">
       <c r="C254" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B254,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B254,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E254" s="1" t="str">
@@ -4382,9 +4662,9 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="255">
       <c r="C255" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B255,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B255,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E255" s="1" t="str">
@@ -4392,9 +4672,9 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="256">
       <c r="C256" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B256,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B256,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E256" s="1" t="str">
@@ -4402,9 +4682,9 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="257">
       <c r="C257" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B257,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B257,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E257" s="1" t="str">
@@ -4412,9 +4692,9 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="258">
       <c r="C258" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B258,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B258,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E258" s="1" t="str">
@@ -4422,9 +4702,9 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="259">
       <c r="C259" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B259,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B259,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E259" s="1" t="str">
@@ -4432,9 +4712,9 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="260">
       <c r="C260" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B260,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B260,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E260" s="1" t="str">
@@ -4442,9 +4722,9 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="261">
       <c r="C261" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B261,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B261,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E261" s="1" t="str">
@@ -4452,9 +4732,9 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="262">
       <c r="C262" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B262,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B262,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E262" s="1" t="str">
@@ -4462,9 +4742,9 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="263">
       <c r="C263" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B263,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B263,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E263" s="1" t="str">
@@ -4472,9 +4752,9 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="264">
       <c r="C264" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B264,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B264,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E264" s="1" t="str">
@@ -4482,9 +4762,9 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="265">
       <c r="C265" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B265,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B265,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E265" s="1" t="str">
@@ -4492,9 +4772,9 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="266">
       <c r="C266" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B266,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B266,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E266" s="1" t="str">
@@ -4502,9 +4782,9 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="267">
       <c r="C267" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B267,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B267,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E267" s="1" t="str">
@@ -4512,9 +4792,9 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="268">
       <c r="C268" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B268,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B268,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E268" s="1" t="str">
@@ -4522,9 +4802,9 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="269">
       <c r="C269" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B269,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B269,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E269" s="1" t="str">
@@ -4532,9 +4812,9 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="270">
       <c r="C270" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B270,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B270,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E270" s="1" t="str">
@@ -4542,9 +4822,9 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="271">
       <c r="C271" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B271,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B271,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E271" s="1" t="str">
@@ -4552,9 +4832,9 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="272">
       <c r="C272" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B272,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B272,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E272" s="1" t="str">
@@ -4562,9 +4842,9 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="273">
       <c r="C273" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B273,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B273,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E273" s="1" t="str">
@@ -4572,9 +4852,9 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="274">
       <c r="C274" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B274,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B274,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E274" s="1" t="str">
@@ -4582,9 +4862,9 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="275">
       <c r="C275" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B275,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B275,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E275" s="1" t="str">
@@ -4592,9 +4872,9 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="276">
       <c r="C276" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B276,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B276,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E276" s="1" t="str">
@@ -4602,9 +4882,9 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="277">
       <c r="C277" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B277,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B277,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E277" s="1" t="str">
@@ -4612,9 +4892,9 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="278">
       <c r="C278" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B278,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B278,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E278" s="1" t="str">
@@ -4622,9 +4902,9 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="279">
       <c r="C279" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B279,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B279,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E279" s="1" t="str">
@@ -4632,9 +4912,9 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="280">
       <c r="C280" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B280,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B280,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E280" s="1" t="str">
@@ -4642,9 +4922,9 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="281">
       <c r="C281" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B281,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B281,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E281" s="1" t="str">
@@ -4652,9 +4932,9 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="282">
       <c r="C282" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B282,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B282,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E282" s="1" t="str">
@@ -4662,9 +4942,9 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="283">
       <c r="C283" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B283,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B283,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E283" s="1" t="str">
@@ -4672,9 +4952,9 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="284">
       <c r="C284" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B284,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B284,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E284" s="1" t="str">
@@ -4682,9 +4962,9 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="285">
       <c r="C285" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B285,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B285,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E285" s="1" t="str">
@@ -4692,9 +4972,9 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="286">
       <c r="C286" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B286,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B286,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E286" s="1" t="str">
@@ -4702,9 +4982,9 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="287">
       <c r="C287" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B287,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B287,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E287" s="1" t="str">
@@ -4712,9 +4992,9 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="288">
       <c r="C288" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B288,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B288,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E288" s="1" t="str">
@@ -4722,9 +5002,9 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="289">
       <c r="C289" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B289,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B289,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E289" s="1" t="str">
@@ -4732,9 +5012,9 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="290">
       <c r="C290" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B290,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B290,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E290" s="1" t="str">
@@ -4742,9 +5022,9 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="291">
       <c r="C291" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B291,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B291,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E291" s="1" t="str">
@@ -4752,9 +5032,9 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="292">
       <c r="C292" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B292,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B292,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E292" s="1" t="str">
@@ -4762,9 +5042,9 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="293">
       <c r="C293" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B293,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B293,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E293" s="1" t="str">
@@ -4772,9 +5052,9 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="294">
       <c r="C294" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B294,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B294,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E294" s="1" t="str">
@@ -4782,9 +5062,9 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="295">
       <c r="C295" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B295,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B295,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E295" s="1" t="str">
@@ -4792,9 +5072,9 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="296">
       <c r="C296" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B296,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B296,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E296" s="1" t="str">
@@ -4802,9 +5082,9 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="297">
       <c r="C297" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B297,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B297,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E297" s="1" t="str">
@@ -4812,9 +5092,9 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="298">
       <c r="C298" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B298,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B298,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E298" s="1" t="str">
@@ -4822,9 +5102,9 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="299">
       <c r="C299" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B299,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B299,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E299" s="1" t="str">
@@ -4832,9 +5112,9 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="300">
       <c r="C300" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B300,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B300,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E300" s="1" t="str">
@@ -4842,9 +5122,9 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="301">
       <c r="C301" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B301,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B301,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E301" s="1" t="str">
@@ -4852,9 +5132,9 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="302">
       <c r="C302" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B302,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B302,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E302" s="1" t="str">
@@ -4862,9 +5142,9 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="303">
       <c r="C303" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B303,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B303,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E303" s="1" t="str">
@@ -4872,9 +5152,9 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="304">
       <c r="C304" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B304,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B304,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E304" s="1" t="str">
@@ -4882,9 +5162,9 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="305">
       <c r="C305" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B305,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B305,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E305" s="1" t="str">
@@ -4892,9 +5172,9 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="306">
       <c r="C306" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B306,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B306,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E306" s="1" t="str">
@@ -4902,9 +5182,9 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="307">
       <c r="C307" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B307,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B307,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E307" s="1" t="str">
@@ -4912,9 +5192,9 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="308">
       <c r="C308" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B308,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B308,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E308" s="1" t="str">
@@ -4922,9 +5202,9 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="309">
       <c r="C309" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B309,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B309,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E309" s="1" t="str">
@@ -4932,9 +5212,9 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="310">
       <c r="C310" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B310,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B310,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E310" s="1" t="str">
@@ -4942,9 +5222,9 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="311">
       <c r="C311" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B311,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B311,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E311" s="1" t="str">
@@ -4952,9 +5232,9 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="312">
       <c r="C312" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B312,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B312,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E312" s="1" t="str">
@@ -4962,9 +5242,9 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="313">
       <c r="C313" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B313,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B313,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E313" s="1" t="str">
@@ -4972,9 +5252,9 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="314">
       <c r="C314" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B314,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B314,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E314" s="1" t="str">
@@ -4982,9 +5262,9 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="315">
       <c r="C315" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B315,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B315,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E315" s="1" t="str">
@@ -4992,9 +5272,9 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="316">
       <c r="C316" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B316,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B316,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E316" s="1" t="str">
@@ -5002,9 +5282,9 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="317">
       <c r="C317" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B317,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B317,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E317" s="1" t="str">
@@ -5012,9 +5292,9 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="318">
       <c r="C318" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B318,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B318,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E318" s="1" t="str">
@@ -5022,9 +5302,9 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="319">
       <c r="C319" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B319,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B319,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E319" s="1" t="str">
@@ -5032,9 +5312,9 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="320">
       <c r="C320" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B320,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B320,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E320" s="1" t="str">
@@ -5042,9 +5322,9 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="321">
       <c r="C321" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B321,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B321,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E321" s="1" t="str">
@@ -5052,9 +5332,9 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="322">
       <c r="C322" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B322,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B322,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E322" s="1" t="str">
@@ -5062,9 +5342,9 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="323">
       <c r="C323" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B323,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B323,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E323" s="1" t="str">
@@ -5072,9 +5352,9 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="324">
       <c r="C324" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B324,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B324,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E324" s="1" t="str">
@@ -5082,9 +5362,9 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="325">
       <c r="C325" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B325,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B325,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E325" s="1" t="str">
@@ -5092,9 +5372,9 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="326">
       <c r="C326" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B326,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B326,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E326" s="1" t="str">
@@ -5102,9 +5382,9 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="327">
       <c r="C327" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B327,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B327,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E327" s="1" t="str">
@@ -5112,9 +5392,9 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="328">
       <c r="C328" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B328,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B328,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E328" s="1" t="str">
@@ -5122,9 +5402,9 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="329">
       <c r="C329" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B329,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B329,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E329" s="1" t="str">
@@ -5132,9 +5412,9 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="330">
       <c r="C330" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B330,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B330,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E330" s="1" t="str">
@@ -5142,9 +5422,9 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="331">
       <c r="C331" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B331,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B331,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E331" s="1" t="str">
@@ -5152,9 +5432,9 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="332">
       <c r="C332" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B332,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B332,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E332" s="1" t="str">
@@ -5162,9 +5442,9 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="333">
       <c r="C333" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B333,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B333,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E333" s="1" t="str">
@@ -5172,9 +5452,9 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="334">
       <c r="C334" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B334,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B334,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E334" s="1" t="str">
@@ -5182,9 +5462,9 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="335">
       <c r="C335" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B335,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B335,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E335" s="1" t="str">
@@ -5192,9 +5472,9 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="336">
       <c r="C336" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B336,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B336,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E336" s="1" t="str">
@@ -5202,9 +5482,9 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="337">
       <c r="C337" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B337,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B337,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E337" s="1" t="str">
@@ -5212,9 +5492,9 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="338">
       <c r="C338" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B338,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B338,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E338" s="1" t="str">
@@ -5222,9 +5502,9 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="339">
       <c r="C339" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B339,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B339,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E339" s="1" t="str">
@@ -5232,9 +5512,9 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="340">
       <c r="C340" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B340,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B340,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E340" s="1" t="str">
@@ -5242,9 +5522,9 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="341">
       <c r="C341" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B341,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B341,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E341" s="1" t="str">
@@ -5252,9 +5532,9 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="342">
       <c r="C342" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B342,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B342,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E342" s="1" t="str">
@@ -5262,9 +5542,9 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="343">
       <c r="C343" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B343,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B343,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E343" s="1" t="str">
@@ -5272,9 +5552,9 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="344">
       <c r="C344" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B344,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B344,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E344" s="1" t="str">
@@ -5282,9 +5562,9 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="345">
       <c r="C345" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B345,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B345,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E345" s="1" t="str">
@@ -5292,9 +5572,9 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="346">
       <c r="C346" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B346,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B346,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E346" s="1" t="str">
@@ -5302,9 +5582,9 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="347">
       <c r="C347" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B347,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B347,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E347" s="1" t="str">
@@ -5312,9 +5592,9 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="348">
       <c r="C348" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B348,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B348,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E348" s="1" t="str">
@@ -5322,9 +5602,9 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="349">
       <c r="C349" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B349,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B349,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E349" s="1" t="str">
@@ -5332,9 +5612,9 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="350">
       <c r="C350" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B350,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B350,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E350" s="1" t="str">
@@ -5342,9 +5622,9 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="351">
       <c r="C351" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B351,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B351,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E351" s="1" t="str">
@@ -5352,9 +5632,9 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="352">
       <c r="C352" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B352,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B352,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E352" s="1" t="str">
@@ -5362,9 +5642,9 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="353">
       <c r="C353" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B353,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B353,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E353" s="1" t="str">
@@ -5372,9 +5652,9 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="354">
       <c r="C354" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B354,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B354,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E354" s="1" t="str">
@@ -5382,9 +5662,9 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="355">
       <c r="C355" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B355,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B355,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E355" s="1" t="str">
@@ -5392,9 +5672,9 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="356">
       <c r="C356" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B356,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B356,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E356" s="1" t="str">
@@ -5402,9 +5682,9 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="357">
       <c r="C357" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B357,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B357,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E357" s="1" t="str">
@@ -5412,9 +5692,9 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="358">
       <c r="C358" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B358,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B358,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E358" s="1" t="str">
@@ -5422,9 +5702,9 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="359">
       <c r="C359" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B359,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B359,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E359" s="1" t="str">
@@ -5432,9 +5712,9 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="360">
       <c r="C360" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B360,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B360,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E360" s="1" t="str">
@@ -5442,9 +5722,9 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="361">
       <c r="C361" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B361,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B361,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E361" s="1" t="str">
@@ -5452,9 +5732,9 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="362">
       <c r="C362" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B362,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B362,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E362" s="1" t="str">
@@ -5462,9 +5742,9 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="363">
       <c r="C363" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B363,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B363,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E363" s="1" t="str">
@@ -5472,9 +5752,9 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="364">
       <c r="C364" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B364,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B364,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E364" s="1" t="str">
@@ -5482,9 +5762,9 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="365">
       <c r="C365" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B365,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B365,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E365" s="1" t="str">
@@ -5492,9 +5772,9 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="366">
       <c r="C366" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B366,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B366,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E366" s="1" t="str">
@@ -5502,9 +5782,9 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="367">
       <c r="C367" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B367,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B367,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E367" s="1" t="str">
@@ -5512,9 +5792,9 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="368">
       <c r="C368" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B368,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B368,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E368" s="1" t="str">
@@ -5522,9 +5802,9 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="369">
       <c r="C369" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B369,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B369,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E369" s="1" t="str">
@@ -5532,9 +5812,9 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="370">
       <c r="C370" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B370,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B370,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E370" s="1" t="str">
@@ -5542,9 +5822,9 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="371">
       <c r="C371" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B371,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B371,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E371" s="1" t="str">
@@ -5552,9 +5832,9 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="372">
       <c r="C372" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B372,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B372,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E372" s="1" t="str">
@@ -5562,9 +5842,9 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="373">
       <c r="C373" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B373,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B373,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E373" s="1" t="str">
@@ -5572,9 +5852,9 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="374">
       <c r="C374" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B374,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B374,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E374" s="1" t="str">
@@ -5582,9 +5862,9 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="375">
       <c r="C375" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B375,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B375,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E375" s="1" t="str">
@@ -5592,9 +5872,9 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="376">
       <c r="C376" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B376,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B376,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E376" s="1" t="str">
@@ -5602,9 +5882,9 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="377">
       <c r="C377" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B377,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B377,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E377" s="1" t="str">
@@ -5612,9 +5892,9 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="378">
       <c r="C378" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B378,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B378,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E378" s="1" t="str">
@@ -5622,9 +5902,9 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="379">
       <c r="C379" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B379,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B379,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E379" s="1" t="str">
@@ -5632,9 +5912,9 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="380">
       <c r="C380" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B380,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B380,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E380" s="1" t="str">
@@ -5642,9 +5922,9 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="381">
       <c r="C381" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B381,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B381,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E381" s="1" t="str">
@@ -5652,9 +5932,9 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="382">
       <c r="C382" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B382,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B382,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E382" s="1" t="str">
@@ -5662,9 +5942,9 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="383">
       <c r="C383" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B383,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B383,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E383" s="1" t="str">
@@ -5672,9 +5952,9 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="384">
       <c r="C384" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B384,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B384,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E384" s="1" t="str">
@@ -5682,9 +5962,9 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="385">
       <c r="C385" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B385,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B385,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E385" s="1" t="str">
@@ -5692,9 +5972,9 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="386">
       <c r="C386" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B386,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B386,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E386" s="1" t="str">
@@ -5702,9 +5982,9 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="387">
       <c r="C387" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B387,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B387,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E387" s="1" t="str">
@@ -5712,9 +5992,9 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="388">
       <c r="C388" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B388,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B388,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E388" s="1" t="str">
@@ -5722,9 +6002,9 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="389">
       <c r="C389" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B389,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B389,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E389" s="1" t="str">
@@ -5732,9 +6012,9 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="390">
       <c r="C390" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B390,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B390,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E390" s="1" t="str">
@@ -5742,9 +6022,9 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="391">
       <c r="C391" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B391,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B391,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E391" s="1" t="str">
@@ -5752,9 +6032,9 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="392">
       <c r="C392" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B392,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B392,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E392" s="1" t="str">
@@ -5762,9 +6042,9 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="393">
       <c r="C393" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B393,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B393,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E393" s="1" t="str">
@@ -5772,9 +6052,9 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="394">
       <c r="C394" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B394,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B394,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E394" s="1" t="str">
@@ -5782,9 +6062,9 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="395">
       <c r="C395" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B395,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B395,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E395" s="1" t="str">
@@ -5792,9 +6072,9 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="396">
       <c r="C396" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B396,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B396,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E396" s="1" t="str">
@@ -5802,9 +6082,9 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="397">
       <c r="C397" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B397,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B397,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E397" s="1" t="str">
@@ -5812,9 +6092,9 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="398">
       <c r="C398" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B398,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B398,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E398" s="1" t="str">
@@ -5822,9 +6102,9 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="399">
       <c r="C399" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B399,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B399,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E399" s="1" t="str">
@@ -5832,9 +6112,9 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="400">
       <c r="C400" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B400,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B400,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E400" s="1" t="str">
@@ -5842,9 +6122,9 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="401">
       <c r="C401" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B401,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B401,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E401" s="1" t="str">
@@ -5852,9 +6132,9 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="402">
       <c r="C402" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B402,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B402,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E402" s="1" t="str">
@@ -5862,9 +6142,9 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="403">
       <c r="C403" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B403,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B403,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E403" s="1" t="str">
@@ -5872,9 +6152,9 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="404">
       <c r="C404" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B404,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B404,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E404" s="1" t="str">
@@ -5882,9 +6162,9 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="405">
       <c r="C405" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B405,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B405,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E405" s="1" t="str">
@@ -5892,9 +6172,9 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="406">
       <c r="C406" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B406,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B406,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E406" s="1" t="str">
@@ -5902,9 +6182,9 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="407">
       <c r="C407" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B407,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B407,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E407" s="1" t="str">
@@ -5912,9 +6192,9 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="408">
       <c r="C408" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B408,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B408,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E408" s="1" t="str">
@@ -5922,9 +6202,9 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="409">
       <c r="C409" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B409,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B409,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E409" s="1" t="str">
@@ -5932,9 +6212,9 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="410">
       <c r="C410" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B410,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B410,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E410" s="1" t="str">
@@ -5942,9 +6222,9 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="411">
       <c r="C411" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B411,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B411,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E411" s="1" t="str">
@@ -5952,9 +6232,9 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="412">
       <c r="C412" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B412,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B412,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E412" s="1" t="str">
@@ -5962,9 +6242,9 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="413">
       <c r="C413" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B413,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B413,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E413" s="1" t="str">
@@ -5972,9 +6252,9 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="414">
       <c r="C414" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B414,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B414,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E414" s="1" t="str">
@@ -5982,9 +6262,9 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="415">
       <c r="C415" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B415,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B415,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E415" s="1" t="str">
@@ -5992,9 +6272,9 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="416">
       <c r="C416" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B416,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B416,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E416" s="1" t="str">
@@ -6002,9 +6282,9 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="417">
       <c r="C417" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B417,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B417,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E417" s="1" t="str">
@@ -6012,9 +6292,9 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="418">
       <c r="C418" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B418,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B418,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E418" s="1" t="str">
@@ -6022,9 +6302,9 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="419">
       <c r="C419" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B419,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B419,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E419" s="1" t="str">
@@ -6032,9 +6312,9 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="420">
       <c r="C420" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B420,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B420,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E420" s="1" t="str">
@@ -6042,9 +6322,9 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="421">
       <c r="C421" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B421,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B421,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E421" s="1" t="str">
@@ -6052,9 +6332,9 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="422">
       <c r="C422" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B422,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B422,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E422" s="1" t="str">
@@ -6062,9 +6342,9 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="423">
       <c r="C423" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B423,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B423,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E423" s="1" t="str">
@@ -6072,9 +6352,9 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="424">
       <c r="C424" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B424,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B424,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E424" s="1" t="str">
@@ -6082,9 +6362,9 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="425">
       <c r="C425" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B425,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B425,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E425" s="1" t="str">
@@ -6092,9 +6372,9 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="426">
       <c r="C426" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B426,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B426,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E426" s="1" t="str">
@@ -6102,9 +6382,9 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="427">
       <c r="C427" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B427,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B427,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E427" s="1" t="str">
@@ -6112,9 +6392,9 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="428">
       <c r="C428" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B428,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B428,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E428" s="1" t="str">
@@ -6122,9 +6402,9 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="429">
       <c r="C429" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B429,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B429,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E429" s="1" t="str">
@@ -6132,9 +6412,9 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="430">
       <c r="C430" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B430,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B430,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E430" s="1" t="str">
@@ -6142,9 +6422,9 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="431">
       <c r="C431" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B431,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B431,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E431" s="1" t="str">
@@ -6152,9 +6432,9 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="432">
       <c r="C432" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B432,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B432,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E432" s="1" t="str">
@@ -6162,9 +6442,9 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="433">
       <c r="C433" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B433,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B433,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E433" s="1" t="str">
@@ -6172,9 +6452,9 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="434">
       <c r="C434" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B434,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B434,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E434" s="1" t="str">
@@ -6182,9 +6462,9 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="435">
       <c r="C435" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B435,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B435,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E435" s="1" t="str">
@@ -6192,9 +6472,9 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="436">
       <c r="C436" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B436,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B436,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E436" s="1" t="str">
@@ -6202,9 +6482,9 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="437">
       <c r="C437" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B437,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B437,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E437" s="1" t="str">
@@ -6212,9 +6492,9 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="438">
       <c r="C438" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B438,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B438,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E438" s="1" t="str">
@@ -6222,9 +6502,9 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="439">
       <c r="C439" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B439,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B439,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E439" s="1" t="str">
@@ -6232,9 +6512,9 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="440">
       <c r="C440" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B440,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B440,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E440" s="1" t="str">
@@ -6242,9 +6522,9 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="441">
       <c r="C441" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B441,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B441,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E441" s="1" t="str">
@@ -6252,9 +6532,9 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="442">
       <c r="C442" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B442,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B442,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E442" s="1" t="str">
@@ -6262,9 +6542,9 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="443">
       <c r="C443" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B443,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B443,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E443" s="1" t="str">
@@ -6272,9 +6552,9 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="444">
       <c r="C444" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B444,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B444,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E444" s="1" t="str">
@@ -6282,9 +6562,9 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="445">
       <c r="C445" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B445,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B445,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E445" s="1" t="str">
@@ -6292,9 +6572,9 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="446">
       <c r="C446" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B446,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B446,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E446" s="1" t="str">
@@ -6302,9 +6582,9 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="447">
       <c r="C447" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B447,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B447,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E447" s="1" t="str">
@@ -6312,9 +6592,9 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="448">
       <c r="C448" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B448,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B448,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E448" s="1" t="str">
@@ -6322,9 +6602,9 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="449">
       <c r="C449" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B449,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B449,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E449" s="1" t="str">
@@ -6332,9 +6612,9 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="450">
       <c r="C450" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B450,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B450,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E450" s="1" t="str">
@@ -6342,9 +6622,9 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="451">
       <c r="C451" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B451,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B451,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E451" s="1" t="str">
@@ -6352,9 +6632,9 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="452">
       <c r="C452" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B452,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B452,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E452" s="1" t="str">
@@ -6362,9 +6642,9 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="453">
       <c r="C453" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B453,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B453,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E453" s="1" t="str">
@@ -6372,9 +6652,9 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="454">
       <c r="C454" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B454,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B454,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E454" s="1" t="str">
@@ -6382,9 +6662,9 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="455">
       <c r="C455" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B455,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B455,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E455" s="1" t="str">
@@ -6392,9 +6672,9 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="456">
       <c r="C456" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B456,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B456,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E456" s="1" t="str">
@@ -6402,9 +6682,9 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="457">
       <c r="C457" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B457,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B457,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E457" s="1" t="str">
@@ -6412,9 +6692,9 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="458">
       <c r="C458" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B458,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B458,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E458" s="1" t="str">
@@ -6422,9 +6702,9 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="459">
       <c r="C459" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B459,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B459,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E459" s="1" t="str">
@@ -6432,9 +6712,9 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="460">
       <c r="C460" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B460,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B460,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E460" s="1" t="str">
@@ -6442,9 +6722,9 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="461">
       <c r="C461" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B461,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B461,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E461" s="1" t="str">
@@ -6452,9 +6732,9 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="462">
       <c r="C462" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B462,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B462,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E462" s="1" t="str">
@@ -6462,9 +6742,9 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="463">
       <c r="C463" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B463,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B463,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E463" s="1" t="str">
@@ -6472,9 +6752,9 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="464">
       <c r="C464" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B464,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B464,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E464" s="1" t="str">
@@ -6482,9 +6762,9 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="465">
       <c r="C465" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B465,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B465,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E465" s="1" t="str">
@@ -6492,9 +6772,9 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="466">
       <c r="C466" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B466,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B466,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E466" s="1" t="str">
@@ -6502,9 +6782,9 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="467">
       <c r="C467" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B467,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B467,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E467" s="1" t="str">
@@ -6512,9 +6792,9 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="468">
       <c r="C468" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B468,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B468,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E468" s="1" t="str">
@@ -6522,9 +6802,9 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="469">
       <c r="C469" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B469,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B469,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E469" s="1" t="str">
@@ -6532,9 +6812,9 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="470">
       <c r="C470" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B470,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B470,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E470" s="1" t="str">
@@ -6542,9 +6822,9 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="471">
       <c r="C471" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B471,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B471,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E471" s="1" t="str">
@@ -6552,9 +6832,9 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="472">
       <c r="C472" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B472,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B472,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E472" s="1" t="str">
@@ -6562,9 +6842,9 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="473">
       <c r="C473" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B473,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B473,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E473" s="1" t="str">
@@ -6572,9 +6852,9 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="474">
       <c r="C474" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B474,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B474,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E474" s="1" t="str">
@@ -6582,9 +6862,9 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="475">
       <c r="C475" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B475,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B475,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E475" s="1" t="str">
@@ -6592,9 +6872,9 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="476">
       <c r="C476" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B476,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B476,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E476" s="1" t="str">
@@ -6602,9 +6882,9 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="477">
       <c r="C477" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B477,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B477,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E477" s="1" t="str">
@@ -6612,9 +6892,9 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="478">
       <c r="C478" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B478,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B478,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E478" s="1" t="str">
@@ -6622,9 +6902,9 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="479">
       <c r="C479" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B479,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B479,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E479" s="1" t="str">
@@ -6632,9 +6912,9 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="480">
       <c r="C480" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B480,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B480,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E480" s="1" t="str">
@@ -6642,9 +6922,9 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="481">
       <c r="C481" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B481,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B481,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E481" s="1" t="str">
@@ -6652,9 +6932,9 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="482">
       <c r="C482" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B482,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B482,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E482" s="1" t="str">
@@ -6662,9 +6942,9 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="483">
       <c r="C483" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B483,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B483,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E483" s="1" t="str">
@@ -6672,9 +6952,9 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="484">
       <c r="C484" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B484,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B484,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E484" s="1" t="str">
@@ -6682,9 +6962,9 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="485">
       <c r="C485" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B485,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B485,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E485" s="1" t="str">
@@ -6692,9 +6972,9 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="486">
       <c r="C486" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B486,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B486,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E486" s="1" t="str">
@@ -6702,9 +6982,9 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="487">
       <c r="C487" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B487,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B487,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E487" s="1" t="str">
@@ -6712,9 +6992,9 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="488">
       <c r="C488" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B488,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B488,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E488" s="1" t="str">
@@ -6722,9 +7002,9 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="489">
       <c r="C489" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B489,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B489,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E489" s="1" t="str">
@@ -6732,9 +7012,9 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="490">
       <c r="C490" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B490,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B490,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E490" s="1" t="str">
@@ -6742,9 +7022,9 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="491">
       <c r="C491" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B491,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B491,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E491" s="1" t="str">
@@ -6752,9 +7032,9 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="492">
       <c r="C492" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B492,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B492,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E492" s="1" t="str">
@@ -6762,9 +7042,9 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="493">
       <c r="C493" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B493,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B493,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E493" s="1" t="str">
@@ -6772,9 +7052,9 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="494">
       <c r="C494" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B494,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B494,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E494" s="1" t="str">
@@ -6782,9 +7062,9 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="495">
       <c r="C495" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B495,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B495,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E495" s="1" t="str">
@@ -6792,9 +7072,9 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="496">
       <c r="C496" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B496,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B496,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E496" s="1" t="str">
@@ -6802,9 +7082,9 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="497">
       <c r="C497" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B497,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B497,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E497" s="1" t="str">
@@ -6812,9 +7092,9 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="498">
       <c r="C498" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B498,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B498,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E498" s="1" t="str">
@@ -6822,9 +7102,9 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="499">
       <c r="C499" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B499,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B499,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E499" s="1" t="str">
@@ -6832,9 +7112,9 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="500">
       <c r="C500" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($B500,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B500,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="E500" s="1" t="str">
@@ -6843,9 +7123,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
@@ -6854,14 +7134,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -6870,8 +7151,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Constant" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -376,7 +376,7 @@
           <color theme="4"/>
         </top>
         <bottom style="none"/>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -396,7 +396,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39991454817346722"/>
         </horizontal>
@@ -429,7 +429,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39991454817346722"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -446,7 +446,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -467,7 +467,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39991454817346722"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -487,7 +487,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39991454817346722"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -504,7 +504,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39991454817346722"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -538,7 +538,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39991454817346722"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -597,6 +597,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="D1" t="str">
             <v>string</v>
@@ -1237,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D5,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D5,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F5" s="8">
@@ -1266,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D6,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D6,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F6" s="8">
@@ -1287,15 +1303,15 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B7,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+      <c r="C7" s="6" t="e">
+        <f ca="1">MATCH($B7,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0)</f>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D7,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D7,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F7" s="8">
@@ -1324,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D8,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D8,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F8" s="8">
@@ -1353,7 +1369,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D9,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D9,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F9" s="8">
@@ -1382,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D10,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D10,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F10" s="8">
@@ -1411,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D11,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D11,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F11" s="8">
@@ -1440,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D12,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D12,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F12" s="8">
@@ -1469,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D13,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D13,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F13" s="8">
@@ -1505,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D14,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D14,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F14" s="8">
@@ -1542,7 +1558,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D15,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D15,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F15" s="8">
@@ -1579,7 +1595,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D16,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D16,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F16" s="8">
@@ -1616,7 +1632,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D17,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D17,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F17" s="8">
@@ -1653,7 +1669,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D18,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D18,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F18" s="8">
@@ -1690,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D19,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D19,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F19" s="8">
@@ -1727,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D20,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D20,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F20" s="8">
@@ -1764,7 +1780,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D21,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D21,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F21" s="8">
@@ -1792,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D22,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D22,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F22" s="8">
@@ -1820,7 +1836,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D23,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D23,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F23" s="8">
@@ -1848,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D24,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D24,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F24" s="8">
@@ -1876,7 +1892,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D25,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D25,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F25" s="8">
@@ -1904,7 +1920,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D26,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D26,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F26" s="8">
@@ -1932,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D27,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D27,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F27" s="8">
@@ -1960,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D28,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D28,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F28" s="8">
@@ -1988,7 +2004,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D29,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D29,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F29" s="1">
@@ -2016,7 +2032,7 @@
         <v>46</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D30,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D30,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F30" s="1">
@@ -2044,7 +2060,7 @@
         <v>47</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D31,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D31,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F31" s="1">
@@ -2072,7 +2088,7 @@
         <v>48</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D32,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D32,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F32" s="1">
@@ -2100,7 +2116,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D33,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D33,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F33" s="1">
@@ -2128,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D34,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D34,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F34" s="1">
@@ -2156,7 +2172,7 @@
         <v>51</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D35,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D35,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F35" s="1">
@@ -2184,7 +2200,7 @@
         <v>52</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D36,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D36,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F36" s="1">
@@ -2211,7 +2227,7 @@
         <v>53</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D37,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D37,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F37" s="1">
@@ -2238,7 +2254,7 @@
         <v>54</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D38,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D38,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F38" s="1">
@@ -2265,7 +2281,7 @@
         <v>55</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D39,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D39,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F39" s="1">
@@ -2292,7 +2308,7 @@
         <v>56</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D40,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D40,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F40" s="1">
@@ -2319,7 +2335,7 @@
         <v>57</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D41,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D41,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F41" s="1">
@@ -2346,7 +2362,7 @@
         <v>58</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D42,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D42,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F42" s="1">
@@ -2373,7 +2389,7 @@
         <v>59</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D43,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D43,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F43" s="1">
@@ -2400,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D44,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D44,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F44" s="1">
@@ -2427,7 +2443,7 @@
         <v>61</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D45,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D45,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F45" s="1">
@@ -2452,7 +2468,7 @@
         <v>62</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D46,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D46,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F46" s="1">
@@ -2477,7 +2493,7 @@
         <v>63</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D47,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D47,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F47" s="1">
@@ -2502,7 +2518,7 @@
         <v>64</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D48,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D48,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F48" s="1">
@@ -2527,7 +2543,7 @@
         <v>65</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D49,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D49,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F49" s="1">
@@ -2552,7 +2568,7 @@
         <v>66</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D50,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D50,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F50" s="1">
@@ -2577,7 +2593,7 @@
         <v>68</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D51,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D51,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F51" s="8">
@@ -2602,7 +2618,7 @@
         <v>70</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D52,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D52,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F52" s="8">
@@ -2627,7 +2643,7 @@
         <v>72</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D53,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D53,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F53" s="8">
@@ -2652,7 +2668,7 @@
         <v>74</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D54,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D54,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="F54" s="8">
@@ -2668,7 +2684,7 @@
         <v/>
       </c>
       <c r="E55" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D55,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D55,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2678,7 +2694,7 @@
         <v/>
       </c>
       <c r="E56" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D56,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D56,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2688,7 +2704,7 @@
         <v/>
       </c>
       <c r="E57" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D57,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D57,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2698,7 +2714,7 @@
         <v/>
       </c>
       <c r="E58" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D58,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D58,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2708,7 +2724,7 @@
         <v/>
       </c>
       <c r="E59" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D59,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D59,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2718,7 +2734,7 @@
         <v/>
       </c>
       <c r="E60" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D60,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D60,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2728,7 +2744,7 @@
         <v/>
       </c>
       <c r="E61" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D61,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D61,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2738,7 +2754,7 @@
         <v/>
       </c>
       <c r="E62" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D62,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D62,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2748,7 +2764,7 @@
         <v/>
       </c>
       <c r="E63" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D63,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D63,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2758,7 +2774,7 @@
         <v/>
       </c>
       <c r="E64" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D64,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D64,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2768,7 +2784,7 @@
         <v/>
       </c>
       <c r="E65" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D65,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D65,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2778,7 +2794,7 @@
         <v/>
       </c>
       <c r="E66" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D66,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D66,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2788,7 +2804,7 @@
         <v/>
       </c>
       <c r="E67" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D67,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D67,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2814,7 @@
         <v/>
       </c>
       <c r="E68" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D68,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D68,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2808,7 +2824,7 @@
         <v/>
       </c>
       <c r="E69" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D69,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D69,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2818,7 +2834,7 @@
         <v/>
       </c>
       <c r="E70" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D70,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D70,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2828,7 +2844,7 @@
         <v/>
       </c>
       <c r="E71" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D71,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D71,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2838,7 +2854,7 @@
         <v/>
       </c>
       <c r="E72" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D72,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D72,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2848,7 +2864,7 @@
         <v/>
       </c>
       <c r="E73" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D73,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D73,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2858,7 +2874,7 @@
         <v/>
       </c>
       <c r="E74" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D74,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D74,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2868,7 +2884,7 @@
         <v/>
       </c>
       <c r="E75" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D75,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D75,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2878,7 +2894,7 @@
         <v/>
       </c>
       <c r="E76" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D76,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D76,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2888,7 +2904,7 @@
         <v/>
       </c>
       <c r="E77" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D77,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D77,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2898,7 +2914,7 @@
         <v/>
       </c>
       <c r="E78" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D78,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D78,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2908,7 +2924,7 @@
         <v/>
       </c>
       <c r="E79" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D79,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D79,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2918,7 +2934,7 @@
         <v/>
       </c>
       <c r="E80" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D80,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D80,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2928,7 +2944,7 @@
         <v/>
       </c>
       <c r="E81" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D81,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D81,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2938,7 +2954,7 @@
         <v/>
       </c>
       <c r="E82" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D82,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D82,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2948,7 +2964,7 @@
         <v/>
       </c>
       <c r="E83" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D83,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D83,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2958,7 +2974,7 @@
         <v/>
       </c>
       <c r="E84" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D84,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D84,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2968,7 +2984,7 @@
         <v/>
       </c>
       <c r="E85" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D85,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D85,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2978,7 +2994,7 @@
         <v/>
       </c>
       <c r="E86" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D86,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D86,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2988,7 +3004,7 @@
         <v/>
       </c>
       <c r="E87" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D87,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D87,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -2998,7 +3014,7 @@
         <v/>
       </c>
       <c r="E88" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D88,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D88,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3008,7 +3024,7 @@
         <v/>
       </c>
       <c r="E89" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D89,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D89,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3018,7 +3034,7 @@
         <v/>
       </c>
       <c r="E90" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D90,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D90,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3028,7 +3044,7 @@
         <v/>
       </c>
       <c r="E91" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D91,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D91,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3038,7 +3054,7 @@
         <v/>
       </c>
       <c r="E92" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D92,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D92,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3048,7 +3064,7 @@
         <v/>
       </c>
       <c r="E93" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D93,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D93,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3058,7 +3074,7 @@
         <v/>
       </c>
       <c r="E94" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D94,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D94,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3068,7 +3084,7 @@
         <v/>
       </c>
       <c r="E95" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D95,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D95,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3078,7 +3094,7 @@
         <v/>
       </c>
       <c r="E96" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D96,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D96,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3088,7 +3104,7 @@
         <v/>
       </c>
       <c r="E97" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D97,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D97,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3098,7 +3114,7 @@
         <v/>
       </c>
       <c r="E98" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D98,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D98,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3108,7 +3124,7 @@
         <v/>
       </c>
       <c r="E99" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D99,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D99,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3118,7 +3134,7 @@
         <v/>
       </c>
       <c r="E100" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D100,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D100,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3128,7 +3144,7 @@
         <v/>
       </c>
       <c r="E101" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D101,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D101,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3138,7 +3154,7 @@
         <v/>
       </c>
       <c r="E102" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D102,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D102,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3148,7 +3164,7 @@
         <v/>
       </c>
       <c r="E103" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D103,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D103,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3158,7 +3174,7 @@
         <v/>
       </c>
       <c r="E104" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D104,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D104,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3168,7 +3184,7 @@
         <v/>
       </c>
       <c r="E105" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D105,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D105,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3178,7 +3194,7 @@
         <v/>
       </c>
       <c r="E106" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D106,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D106,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3188,7 +3204,7 @@
         <v/>
       </c>
       <c r="E107" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D107,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D107,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3198,7 +3214,7 @@
         <v/>
       </c>
       <c r="E108" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D108,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D108,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3208,7 +3224,7 @@
         <v/>
       </c>
       <c r="E109" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D109,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D109,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3218,7 +3234,7 @@
         <v/>
       </c>
       <c r="E110" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D110,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D110,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3228,7 +3244,7 @@
         <v/>
       </c>
       <c r="E111" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D111,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D111,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3238,7 +3254,7 @@
         <v/>
       </c>
       <c r="E112" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D112,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D112,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3248,7 +3264,7 @@
         <v/>
       </c>
       <c r="E113" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D113,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D113,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3258,7 +3274,7 @@
         <v/>
       </c>
       <c r="E114" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D114,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D114,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3268,7 +3284,7 @@
         <v/>
       </c>
       <c r="E115" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D115,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D115,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3278,7 +3294,7 @@
         <v/>
       </c>
       <c r="E116" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D116,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D116,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3288,7 +3304,7 @@
         <v/>
       </c>
       <c r="E117" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D117,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D117,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3298,7 +3314,7 @@
         <v/>
       </c>
       <c r="E118" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D118,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D118,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3308,7 +3324,7 @@
         <v/>
       </c>
       <c r="E119" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D119,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D119,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3318,7 +3334,7 @@
         <v/>
       </c>
       <c r="E120" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D120,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D120,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3328,7 +3344,7 @@
         <v/>
       </c>
       <c r="E121" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D121,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D121,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3338,7 +3354,7 @@
         <v/>
       </c>
       <c r="E122" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D122,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D122,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3348,7 +3364,7 @@
         <v/>
       </c>
       <c r="E123" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D123,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D123,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3358,7 +3374,7 @@
         <v/>
       </c>
       <c r="E124" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D124,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D124,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3368,7 +3384,7 @@
         <v/>
       </c>
       <c r="E125" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D125,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D125,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3378,7 +3394,7 @@
         <v/>
       </c>
       <c r="E126" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D126,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D126,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3388,7 +3404,7 @@
         <v/>
       </c>
       <c r="E127" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D127,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D127,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3398,7 +3414,7 @@
         <v/>
       </c>
       <c r="E128" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D128,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D128,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3408,7 +3424,7 @@
         <v/>
       </c>
       <c r="E129" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D129,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D129,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3418,7 +3434,7 @@
         <v/>
       </c>
       <c r="E130" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D130,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D130,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3428,7 +3444,7 @@
         <v/>
       </c>
       <c r="E131" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D131,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D131,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3438,7 +3454,7 @@
         <v/>
       </c>
       <c r="E132" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D132,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D132,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3448,7 +3464,7 @@
         <v/>
       </c>
       <c r="E133" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D133,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D133,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3458,7 +3474,7 @@
         <v/>
       </c>
       <c r="E134" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D134,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D134,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3468,7 +3484,7 @@
         <v/>
       </c>
       <c r="E135" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D135,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D135,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3478,7 +3494,7 @@
         <v/>
       </c>
       <c r="E136" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D136,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D136,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3488,7 +3504,7 @@
         <v/>
       </c>
       <c r="E137" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D137,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D137,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3498,7 +3514,7 @@
         <v/>
       </c>
       <c r="E138" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D138,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D138,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3508,7 +3524,7 @@
         <v/>
       </c>
       <c r="E139" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D139,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D139,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3518,7 +3534,7 @@
         <v/>
       </c>
       <c r="E140" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D140,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D140,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3528,7 +3544,7 @@
         <v/>
       </c>
       <c r="E141" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D141,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D141,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3538,7 +3554,7 @@
         <v/>
       </c>
       <c r="E142" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D142,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D142,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3548,7 +3564,7 @@
         <v/>
       </c>
       <c r="E143" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D143,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D143,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3558,7 +3574,7 @@
         <v/>
       </c>
       <c r="E144" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D144,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D144,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3568,7 +3584,7 @@
         <v/>
       </c>
       <c r="E145" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D145,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D145,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3578,7 +3594,7 @@
         <v/>
       </c>
       <c r="E146" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D146,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D146,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3588,7 +3604,7 @@
         <v/>
       </c>
       <c r="E147" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D147,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D147,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3598,7 +3614,7 @@
         <v/>
       </c>
       <c r="E148" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D148,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D148,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3608,7 +3624,7 @@
         <v/>
       </c>
       <c r="E149" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D149,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D149,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3618,7 +3634,7 @@
         <v/>
       </c>
       <c r="E150" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D150,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D150,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3628,7 +3644,7 @@
         <v/>
       </c>
       <c r="E151" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D151,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D151,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3638,7 +3654,7 @@
         <v/>
       </c>
       <c r="E152" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D152,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D152,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3648,7 +3664,7 @@
         <v/>
       </c>
       <c r="E153" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D153,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D153,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3658,7 +3674,7 @@
         <v/>
       </c>
       <c r="E154" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D154,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D154,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3668,7 +3684,7 @@
         <v/>
       </c>
       <c r="E155" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D155,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D155,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3678,7 +3694,7 @@
         <v/>
       </c>
       <c r="E156" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D156,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D156,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3688,7 +3704,7 @@
         <v/>
       </c>
       <c r="E157" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D157,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D157,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3698,7 +3714,7 @@
         <v/>
       </c>
       <c r="E158" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D158,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D158,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3708,7 +3724,7 @@
         <v/>
       </c>
       <c r="E159" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D159,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D159,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3718,7 +3734,7 @@
         <v/>
       </c>
       <c r="E160" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D160,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D160,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3728,7 +3744,7 @@
         <v/>
       </c>
       <c r="E161" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D161,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D161,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3738,7 +3754,7 @@
         <v/>
       </c>
       <c r="E162" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D162,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D162,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3748,7 +3764,7 @@
         <v/>
       </c>
       <c r="E163" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D163,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D163,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3758,7 +3774,7 @@
         <v/>
       </c>
       <c r="E164" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D164,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D164,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3768,7 +3784,7 @@
         <v/>
       </c>
       <c r="E165" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D165,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D165,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3778,7 +3794,7 @@
         <v/>
       </c>
       <c r="E166" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D166,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D166,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3788,7 +3804,7 @@
         <v/>
       </c>
       <c r="E167" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D167,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D167,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3798,7 +3814,7 @@
         <v/>
       </c>
       <c r="E168" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D168,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D168,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3808,7 +3824,7 @@
         <v/>
       </c>
       <c r="E169" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D169,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D169,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3818,7 +3834,7 @@
         <v/>
       </c>
       <c r="E170" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D170,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D170,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3828,7 +3844,7 @@
         <v/>
       </c>
       <c r="E171" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D171,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D171,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3838,7 +3854,7 @@
         <v/>
       </c>
       <c r="E172" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D172,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D172,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3848,7 +3864,7 @@
         <v/>
       </c>
       <c r="E173" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D173,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D173,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3858,7 +3874,7 @@
         <v/>
       </c>
       <c r="E174" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D174,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D174,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3868,7 +3884,7 @@
         <v/>
       </c>
       <c r="E175" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D175,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D175,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3878,7 +3894,7 @@
         <v/>
       </c>
       <c r="E176" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D176,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D176,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3888,7 +3904,7 @@
         <v/>
       </c>
       <c r="E177" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D177,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D177,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3898,7 +3914,7 @@
         <v/>
       </c>
       <c r="E178" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D178,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D178,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3908,7 +3924,7 @@
         <v/>
       </c>
       <c r="E179" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D179,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D179,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3918,7 +3934,7 @@
         <v/>
       </c>
       <c r="E180" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D180,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D180,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3928,7 +3944,7 @@
         <v/>
       </c>
       <c r="E181" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D181,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D181,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3938,7 +3954,7 @@
         <v/>
       </c>
       <c r="E182" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D182,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D182,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3948,7 +3964,7 @@
         <v/>
       </c>
       <c r="E183" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D183,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D183,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3958,7 +3974,7 @@
         <v/>
       </c>
       <c r="E184" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D184,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D184,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3968,7 +3984,7 @@
         <v/>
       </c>
       <c r="E185" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D185,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D185,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3978,7 +3994,7 @@
         <v/>
       </c>
       <c r="E186" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D186,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D186,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3988,7 +4004,7 @@
         <v/>
       </c>
       <c r="E187" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D187,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D187,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3998,7 +4014,7 @@
         <v/>
       </c>
       <c r="E188" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D188,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D188,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4008,7 +4024,7 @@
         <v/>
       </c>
       <c r="E189" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D189,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D189,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4034,7 @@
         <v/>
       </c>
       <c r="E190" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D190,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D190,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4028,7 +4044,7 @@
         <v/>
       </c>
       <c r="E191" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D191,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D191,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4038,7 +4054,7 @@
         <v/>
       </c>
       <c r="E192" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D192,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D192,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4048,7 +4064,7 @@
         <v/>
       </c>
       <c r="E193" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D193,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D193,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4058,7 +4074,7 @@
         <v/>
       </c>
       <c r="E194" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D194,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D194,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4068,7 +4084,7 @@
         <v/>
       </c>
       <c r="E195" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D195,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D195,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4078,7 +4094,7 @@
         <v/>
       </c>
       <c r="E196" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D196,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D196,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4088,7 +4104,7 @@
         <v/>
       </c>
       <c r="E197" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D197,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D197,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4098,7 +4114,7 @@
         <v/>
       </c>
       <c r="E198" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D198,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D198,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4108,7 +4124,7 @@
         <v/>
       </c>
       <c r="E199" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D199,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D199,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4118,7 +4134,7 @@
         <v/>
       </c>
       <c r="E200" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D200,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D200,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4128,7 +4144,7 @@
         <v/>
       </c>
       <c r="E201" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D201,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D201,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4138,7 +4154,7 @@
         <v/>
       </c>
       <c r="E202" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D202,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D202,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4148,7 +4164,7 @@
         <v/>
       </c>
       <c r="E203" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D203,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D203,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4158,7 +4174,7 @@
         <v/>
       </c>
       <c r="E204" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D204,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D204,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4168,7 +4184,7 @@
         <v/>
       </c>
       <c r="E205" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D205,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D205,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4178,7 +4194,7 @@
         <v/>
       </c>
       <c r="E206" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D206,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D206,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4188,7 +4204,7 @@
         <v/>
       </c>
       <c r="E207" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D207,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D207,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4198,7 +4214,7 @@
         <v/>
       </c>
       <c r="E208" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D208,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D208,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4208,7 +4224,7 @@
         <v/>
       </c>
       <c r="E209" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D209,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D209,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +4234,7 @@
         <v/>
       </c>
       <c r="E210" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D210,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D210,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4228,7 +4244,7 @@
         <v/>
       </c>
       <c r="E211" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D211,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D211,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4238,7 +4254,7 @@
         <v/>
       </c>
       <c r="E212" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D212,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D212,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4248,7 +4264,7 @@
         <v/>
       </c>
       <c r="E213" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D213,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D213,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4258,7 +4274,7 @@
         <v/>
       </c>
       <c r="E214" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D214,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D214,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4268,7 +4284,7 @@
         <v/>
       </c>
       <c r="E215" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D215,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D215,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4278,7 +4294,7 @@
         <v/>
       </c>
       <c r="E216" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D216,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D216,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4288,7 +4304,7 @@
         <v/>
       </c>
       <c r="E217" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D217,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D217,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4298,7 +4314,7 @@
         <v/>
       </c>
       <c r="E218" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D218,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D218,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4308,7 +4324,7 @@
         <v/>
       </c>
       <c r="E219" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D219,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D219,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4318,7 +4334,7 @@
         <v/>
       </c>
       <c r="E220" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D220,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D220,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4328,7 +4344,7 @@
         <v/>
       </c>
       <c r="E221" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D221,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D221,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4338,7 +4354,7 @@
         <v/>
       </c>
       <c r="E222" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D222,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D222,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4348,7 +4364,7 @@
         <v/>
       </c>
       <c r="E223" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D223,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D223,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4358,7 +4374,7 @@
         <v/>
       </c>
       <c r="E224" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D224,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D224,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4368,7 +4384,7 @@
         <v/>
       </c>
       <c r="E225" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D225,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D225,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4378,7 +4394,7 @@
         <v/>
       </c>
       <c r="E226" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D226,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D226,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4388,7 +4404,7 @@
         <v/>
       </c>
       <c r="E227" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D227,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D227,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4398,7 +4414,7 @@
         <v/>
       </c>
       <c r="E228" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D228,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D228,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4408,7 +4424,7 @@
         <v/>
       </c>
       <c r="E229" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D229,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D229,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4418,7 +4434,7 @@
         <v/>
       </c>
       <c r="E230" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D230,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D230,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4428,7 +4444,7 @@
         <v/>
       </c>
       <c r="E231" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D231,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D231,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4438,7 +4454,7 @@
         <v/>
       </c>
       <c r="E232" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D232,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D232,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4448,7 +4464,7 @@
         <v/>
       </c>
       <c r="E233" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D233,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D233,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4458,7 +4474,7 @@
         <v/>
       </c>
       <c r="E234" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D234,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D234,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4468,7 +4484,7 @@
         <v/>
       </c>
       <c r="E235" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D235,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D235,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4478,7 +4494,7 @@
         <v/>
       </c>
       <c r="E236" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D236,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D236,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4488,7 +4504,7 @@
         <v/>
       </c>
       <c r="E237" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D237,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D237,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4498,7 +4514,7 @@
         <v/>
       </c>
       <c r="E238" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D238,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D238,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4508,7 +4524,7 @@
         <v/>
       </c>
       <c r="E239" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D239,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D239,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4518,7 +4534,7 @@
         <v/>
       </c>
       <c r="E240" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D240,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D240,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4528,7 +4544,7 @@
         <v/>
       </c>
       <c r="E241" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D241,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D241,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4538,7 +4554,7 @@
         <v/>
       </c>
       <c r="E242" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D242,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D242,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4548,7 +4564,7 @@
         <v/>
       </c>
       <c r="E243" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D243,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D243,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4558,7 +4574,7 @@
         <v/>
       </c>
       <c r="E244" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D244,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D244,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4568,7 +4584,7 @@
         <v/>
       </c>
       <c r="E245" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D245,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D245,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4578,7 +4594,7 @@
         <v/>
       </c>
       <c r="E246" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D246,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D246,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4588,7 +4604,7 @@
         <v/>
       </c>
       <c r="E247" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D247,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D247,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4598,7 +4614,7 @@
         <v/>
       </c>
       <c r="E248" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D248,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D248,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4608,7 +4624,7 @@
         <v/>
       </c>
       <c r="E249" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D249,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D249,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4618,7 +4634,7 @@
         <v/>
       </c>
       <c r="E250" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D250,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D250,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4628,7 +4644,7 @@
         <v/>
       </c>
       <c r="E251" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D251,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D251,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4638,7 +4654,7 @@
         <v/>
       </c>
       <c r="E252" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D252,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D252,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4648,7 +4664,7 @@
         <v/>
       </c>
       <c r="E253" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D253,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D253,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4658,7 +4674,7 @@
         <v/>
       </c>
       <c r="E254" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D254,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D254,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4668,7 +4684,7 @@
         <v/>
       </c>
       <c r="E255" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D255,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D255,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4678,7 +4694,7 @@
         <v/>
       </c>
       <c r="E256" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D256,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D256,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4688,7 +4704,7 @@
         <v/>
       </c>
       <c r="E257" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D257,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D257,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4698,7 +4714,7 @@
         <v/>
       </c>
       <c r="E258" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D258,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D258,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4708,7 +4724,7 @@
         <v/>
       </c>
       <c r="E259" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D259,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D259,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4718,7 +4734,7 @@
         <v/>
       </c>
       <c r="E260" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D260,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D260,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4728,7 +4744,7 @@
         <v/>
       </c>
       <c r="E261" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D261,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D261,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4738,7 +4754,7 @@
         <v/>
       </c>
       <c r="E262" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D262,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D262,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4748,7 +4764,7 @@
         <v/>
       </c>
       <c r="E263" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D263,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D263,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4758,7 +4774,7 @@
         <v/>
       </c>
       <c r="E264" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D264,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D264,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4768,7 +4784,7 @@
         <v/>
       </c>
       <c r="E265" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D265,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D265,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4778,7 +4794,7 @@
         <v/>
       </c>
       <c r="E266" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D266,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D266,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4788,7 +4804,7 @@
         <v/>
       </c>
       <c r="E267" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D267,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D267,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4798,7 +4814,7 @@
         <v/>
       </c>
       <c r="E268" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D268,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D268,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4808,7 +4824,7 @@
         <v/>
       </c>
       <c r="E269" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D269,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D269,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4818,7 +4834,7 @@
         <v/>
       </c>
       <c r="E270" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D270,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D270,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4828,7 +4844,7 @@
         <v/>
       </c>
       <c r="E271" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D271,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D271,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4838,7 +4854,7 @@
         <v/>
       </c>
       <c r="E272" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D272,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D272,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4848,7 +4864,7 @@
         <v/>
       </c>
       <c r="E273" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D273,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D273,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4858,7 +4874,7 @@
         <v/>
       </c>
       <c r="E274" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D274,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D274,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4868,7 +4884,7 @@
         <v/>
       </c>
       <c r="E275" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D275,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D275,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4878,7 +4894,7 @@
         <v/>
       </c>
       <c r="E276" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D276,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D276,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4888,7 +4904,7 @@
         <v/>
       </c>
       <c r="E277" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D277,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D277,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4898,7 +4914,7 @@
         <v/>
       </c>
       <c r="E278" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D278,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D278,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4908,7 +4924,7 @@
         <v/>
       </c>
       <c r="E279" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D279,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D279,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4918,7 +4934,7 @@
         <v/>
       </c>
       <c r="E280" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D280,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D280,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4928,7 +4944,7 @@
         <v/>
       </c>
       <c r="E281" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D281,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D281,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4938,7 +4954,7 @@
         <v/>
       </c>
       <c r="E282" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D282,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D282,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4948,7 +4964,7 @@
         <v/>
       </c>
       <c r="E283" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D283,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D283,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4958,7 +4974,7 @@
         <v/>
       </c>
       <c r="E284" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D284,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D284,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4968,7 +4984,7 @@
         <v/>
       </c>
       <c r="E285" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D285,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D285,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4978,7 +4994,7 @@
         <v/>
       </c>
       <c r="E286" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D286,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D286,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4988,7 +5004,7 @@
         <v/>
       </c>
       <c r="E287" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D287,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D287,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4998,7 +5014,7 @@
         <v/>
       </c>
       <c r="E288" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D288,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D288,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5008,7 +5024,7 @@
         <v/>
       </c>
       <c r="E289" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D289,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D289,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5018,7 +5034,7 @@
         <v/>
       </c>
       <c r="E290" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D290,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D290,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5028,7 +5044,7 @@
         <v/>
       </c>
       <c r="E291" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D291,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D291,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5038,7 +5054,7 @@
         <v/>
       </c>
       <c r="E292" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D292,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D292,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5048,7 +5064,7 @@
         <v/>
       </c>
       <c r="E293" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D293,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D293,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5058,7 +5074,7 @@
         <v/>
       </c>
       <c r="E294" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D294,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D294,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5068,7 +5084,7 @@
         <v/>
       </c>
       <c r="E295" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D295,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D295,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5078,7 +5094,7 @@
         <v/>
       </c>
       <c r="E296" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D296,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D296,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5088,7 +5104,7 @@
         <v/>
       </c>
       <c r="E297" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D297,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D297,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5098,7 +5114,7 @@
         <v/>
       </c>
       <c r="E298" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D298,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D298,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5108,7 +5124,7 @@
         <v/>
       </c>
       <c r="E299" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D299,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D299,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5118,7 +5134,7 @@
         <v/>
       </c>
       <c r="E300" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D300,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D300,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5128,7 +5144,7 @@
         <v/>
       </c>
       <c r="E301" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D301,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D301,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5138,7 +5154,7 @@
         <v/>
       </c>
       <c r="E302" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D302,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D302,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5148,7 +5164,7 @@
         <v/>
       </c>
       <c r="E303" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D303,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D303,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5158,7 +5174,7 @@
         <v/>
       </c>
       <c r="E304" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D304,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D304,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5168,7 +5184,7 @@
         <v/>
       </c>
       <c r="E305" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D305,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D305,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5178,7 +5194,7 @@
         <v/>
       </c>
       <c r="E306" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D306,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D306,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5188,7 +5204,7 @@
         <v/>
       </c>
       <c r="E307" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D307,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D307,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5198,7 +5214,7 @@
         <v/>
       </c>
       <c r="E308" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D308,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D308,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5208,7 +5224,7 @@
         <v/>
       </c>
       <c r="E309" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D309,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D309,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5218,7 +5234,7 @@
         <v/>
       </c>
       <c r="E310" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D310,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D310,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5228,7 +5244,7 @@
         <v/>
       </c>
       <c r="E311" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D311,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D311,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5238,7 +5254,7 @@
         <v/>
       </c>
       <c r="E312" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D312,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D312,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5248,7 +5264,7 @@
         <v/>
       </c>
       <c r="E313" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D313,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D313,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5258,7 +5274,7 @@
         <v/>
       </c>
       <c r="E314" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D314,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D314,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5268,7 +5284,7 @@
         <v/>
       </c>
       <c r="E315" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D315,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D315,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5278,7 +5294,7 @@
         <v/>
       </c>
       <c r="E316" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D316,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D316,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5288,7 +5304,7 @@
         <v/>
       </c>
       <c r="E317" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D317,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D317,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5298,7 +5314,7 @@
         <v/>
       </c>
       <c r="E318" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D318,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D318,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5308,7 +5324,7 @@
         <v/>
       </c>
       <c r="E319" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D319,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D319,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5318,7 +5334,7 @@
         <v/>
       </c>
       <c r="E320" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D320,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D320,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5328,7 +5344,7 @@
         <v/>
       </c>
       <c r="E321" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D321,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D321,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5338,7 +5354,7 @@
         <v/>
       </c>
       <c r="E322" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D322,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D322,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5348,7 +5364,7 @@
         <v/>
       </c>
       <c r="E323" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D323,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D323,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5358,7 +5374,7 @@
         <v/>
       </c>
       <c r="E324" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D324,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D324,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5368,7 +5384,7 @@
         <v/>
       </c>
       <c r="E325" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D325,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D325,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5378,7 +5394,7 @@
         <v/>
       </c>
       <c r="E326" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D326,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D326,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5388,7 +5404,7 @@
         <v/>
       </c>
       <c r="E327" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D327,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D327,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5398,7 +5414,7 @@
         <v/>
       </c>
       <c r="E328" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D328,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D328,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5408,7 +5424,7 @@
         <v/>
       </c>
       <c r="E329" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D329,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D329,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5418,7 +5434,7 @@
         <v/>
       </c>
       <c r="E330" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D330,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D330,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5428,7 +5444,7 @@
         <v/>
       </c>
       <c r="E331" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D331,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D331,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5438,7 +5454,7 @@
         <v/>
       </c>
       <c r="E332" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D332,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D332,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5448,7 +5464,7 @@
         <v/>
       </c>
       <c r="E333" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D333,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D333,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5458,7 +5474,7 @@
         <v/>
       </c>
       <c r="E334" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D334,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D334,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5468,7 +5484,7 @@
         <v/>
       </c>
       <c r="E335" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D335,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D335,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5478,7 +5494,7 @@
         <v/>
       </c>
       <c r="E336" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D336,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D336,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5488,7 +5504,7 @@
         <v/>
       </c>
       <c r="E337" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D337,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D337,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5498,7 +5514,7 @@
         <v/>
       </c>
       <c r="E338" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D338,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D338,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5508,7 +5524,7 @@
         <v/>
       </c>
       <c r="E339" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D339,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D339,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5518,7 +5534,7 @@
         <v/>
       </c>
       <c r="E340" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D340,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D340,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5528,7 +5544,7 @@
         <v/>
       </c>
       <c r="E341" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D341,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D341,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5538,7 +5554,7 @@
         <v/>
       </c>
       <c r="E342" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D342,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D342,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5548,7 +5564,7 @@
         <v/>
       </c>
       <c r="E343" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D343,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D343,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5558,7 +5574,7 @@
         <v/>
       </c>
       <c r="E344" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D344,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D344,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5568,7 +5584,7 @@
         <v/>
       </c>
       <c r="E345" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D345,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D345,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5578,7 +5594,7 @@
         <v/>
       </c>
       <c r="E346" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D346,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D346,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5588,7 +5604,7 @@
         <v/>
       </c>
       <c r="E347" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D347,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D347,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5598,7 +5614,7 @@
         <v/>
       </c>
       <c r="E348" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D348,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D348,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5608,7 +5624,7 @@
         <v/>
       </c>
       <c r="E349" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D349,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D349,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5618,7 +5634,7 @@
         <v/>
       </c>
       <c r="E350" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D350,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D350,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5628,7 +5644,7 @@
         <v/>
       </c>
       <c r="E351" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D351,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D351,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5638,7 +5654,7 @@
         <v/>
       </c>
       <c r="E352" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D352,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D352,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5648,7 +5664,7 @@
         <v/>
       </c>
       <c r="E353" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D353,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D353,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5658,7 +5674,7 @@
         <v/>
       </c>
       <c r="E354" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D354,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D354,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5668,7 +5684,7 @@
         <v/>
       </c>
       <c r="E355" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D355,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D355,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5678,7 +5694,7 @@
         <v/>
       </c>
       <c r="E356" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D356,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D356,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5688,7 +5704,7 @@
         <v/>
       </c>
       <c r="E357" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D357,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D357,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5698,7 +5714,7 @@
         <v/>
       </c>
       <c r="E358" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D358,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D358,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5708,7 +5724,7 @@
         <v/>
       </c>
       <c r="E359" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D359,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D359,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5718,7 +5734,7 @@
         <v/>
       </c>
       <c r="E360" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D360,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D360,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5728,7 +5744,7 @@
         <v/>
       </c>
       <c r="E361" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D361,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D361,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5738,7 +5754,7 @@
         <v/>
       </c>
       <c r="E362" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D362,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D362,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5748,7 +5764,7 @@
         <v/>
       </c>
       <c r="E363" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D363,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D363,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5758,7 +5774,7 @@
         <v/>
       </c>
       <c r="E364" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D364,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D364,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5768,7 +5784,7 @@
         <v/>
       </c>
       <c r="E365" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D365,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D365,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5778,7 +5794,7 @@
         <v/>
       </c>
       <c r="E366" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D366,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D366,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5788,7 +5804,7 @@
         <v/>
       </c>
       <c r="E367" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D367,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D367,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5798,7 +5814,7 @@
         <v/>
       </c>
       <c r="E368" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D368,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D368,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5808,7 +5824,7 @@
         <v/>
       </c>
       <c r="E369" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D369,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D369,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5818,7 +5834,7 @@
         <v/>
       </c>
       <c r="E370" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D370,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D370,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5828,7 +5844,7 @@
         <v/>
       </c>
       <c r="E371" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D371,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D371,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5838,7 +5854,7 @@
         <v/>
       </c>
       <c r="E372" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D372,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D372,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5848,7 +5864,7 @@
         <v/>
       </c>
       <c r="E373" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D373,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D373,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5858,7 +5874,7 @@
         <v/>
       </c>
       <c r="E374" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D374,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D374,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5868,7 +5884,7 @@
         <v/>
       </c>
       <c r="E375" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D375,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D375,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5878,7 +5894,7 @@
         <v/>
       </c>
       <c r="E376" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D376,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D376,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5888,7 +5904,7 @@
         <v/>
       </c>
       <c r="E377" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D377,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D377,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5898,7 +5914,7 @@
         <v/>
       </c>
       <c r="E378" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D378,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D378,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5908,7 +5924,7 @@
         <v/>
       </c>
       <c r="E379" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D379,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D379,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5918,7 +5934,7 @@
         <v/>
       </c>
       <c r="E380" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D380,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D380,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5928,7 +5944,7 @@
         <v/>
       </c>
       <c r="E381" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D381,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D381,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5938,7 +5954,7 @@
         <v/>
       </c>
       <c r="E382" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D382,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D382,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5948,7 +5964,7 @@
         <v/>
       </c>
       <c r="E383" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D383,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D383,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5958,7 +5974,7 @@
         <v/>
       </c>
       <c r="E384" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D384,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D384,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5968,7 +5984,7 @@
         <v/>
       </c>
       <c r="E385" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D385,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D385,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5978,7 +5994,7 @@
         <v/>
       </c>
       <c r="E386" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D386,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D386,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5988,7 +6004,7 @@
         <v/>
       </c>
       <c r="E387" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D387,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D387,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -5998,7 +6014,7 @@
         <v/>
       </c>
       <c r="E388" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D388,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D388,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6008,7 +6024,7 @@
         <v/>
       </c>
       <c r="E389" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D389,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D389,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6018,7 +6034,7 @@
         <v/>
       </c>
       <c r="E390" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D390,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D390,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6028,7 +6044,7 @@
         <v/>
       </c>
       <c r="E391" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D391,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D391,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6038,7 +6054,7 @@
         <v/>
       </c>
       <c r="E392" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D392,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D392,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6048,7 +6064,7 @@
         <v/>
       </c>
       <c r="E393" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D393,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D393,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6058,7 +6074,7 @@
         <v/>
       </c>
       <c r="E394" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D394,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D394,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6068,7 +6084,7 @@
         <v/>
       </c>
       <c r="E395" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D395,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D395,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6078,7 +6094,7 @@
         <v/>
       </c>
       <c r="E396" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D396,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D396,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6088,7 +6104,7 @@
         <v/>
       </c>
       <c r="E397" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D397,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D397,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6098,7 +6114,7 @@
         <v/>
       </c>
       <c r="E398" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D398,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D398,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6108,7 +6124,7 @@
         <v/>
       </c>
       <c r="E399" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D399,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D399,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6118,7 +6134,7 @@
         <v/>
       </c>
       <c r="E400" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D400,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D400,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6128,7 +6144,7 @@
         <v/>
       </c>
       <c r="E401" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D401,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D401,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6138,7 +6154,7 @@
         <v/>
       </c>
       <c r="E402" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D402,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D402,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6148,7 +6164,7 @@
         <v/>
       </c>
       <c r="E403" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D403,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D403,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6158,7 +6174,7 @@
         <v/>
       </c>
       <c r="E404" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D404,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D404,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6168,7 +6184,7 @@
         <v/>
       </c>
       <c r="E405" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D405,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D405,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6178,7 +6194,7 @@
         <v/>
       </c>
       <c r="E406" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D406,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D406,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6188,7 +6204,7 @@
         <v/>
       </c>
       <c r="E407" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D407,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D407,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6198,7 +6214,7 @@
         <v/>
       </c>
       <c r="E408" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D408,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D408,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6208,7 +6224,7 @@
         <v/>
       </c>
       <c r="E409" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D409,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D409,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6218,7 +6234,7 @@
         <v/>
       </c>
       <c r="E410" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D410,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D410,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6228,7 +6244,7 @@
         <v/>
       </c>
       <c r="E411" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D411,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D411,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6238,7 +6254,7 @@
         <v/>
       </c>
       <c r="E412" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D412,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D412,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6248,7 +6264,7 @@
         <v/>
       </c>
       <c r="E413" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D413,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D413,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6258,7 +6274,7 @@
         <v/>
       </c>
       <c r="E414" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D414,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D414,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6268,7 +6284,7 @@
         <v/>
       </c>
       <c r="E415" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D415,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D415,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6278,7 +6294,7 @@
         <v/>
       </c>
       <c r="E416" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D416,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D416,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6288,7 +6304,7 @@
         <v/>
       </c>
       <c r="E417" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D417,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D417,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6298,7 +6314,7 @@
         <v/>
       </c>
       <c r="E418" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D418,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D418,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6308,7 +6324,7 @@
         <v/>
       </c>
       <c r="E419" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D419,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D419,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6318,7 +6334,7 @@
         <v/>
       </c>
       <c r="E420" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D420,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D420,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6328,7 +6344,7 @@
         <v/>
       </c>
       <c r="E421" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D421,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D421,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6338,7 +6354,7 @@
         <v/>
       </c>
       <c r="E422" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D422,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D422,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6348,7 +6364,7 @@
         <v/>
       </c>
       <c r="E423" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D423,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D423,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6358,7 +6374,7 @@
         <v/>
       </c>
       <c r="E424" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D424,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D424,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6368,7 +6384,7 @@
         <v/>
       </c>
       <c r="E425" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D425,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D425,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6378,7 +6394,7 @@
         <v/>
       </c>
       <c r="E426" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D426,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D426,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6388,7 +6404,7 @@
         <v/>
       </c>
       <c r="E427" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D427,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D427,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6398,7 +6414,7 @@
         <v/>
       </c>
       <c r="E428" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D428,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D428,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6408,7 +6424,7 @@
         <v/>
       </c>
       <c r="E429" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D429,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D429,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6418,7 +6434,7 @@
         <v/>
       </c>
       <c r="E430" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D430,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D430,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6428,7 +6444,7 @@
         <v/>
       </c>
       <c r="E431" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D431,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D431,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6438,7 +6454,7 @@
         <v/>
       </c>
       <c r="E432" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D432,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D432,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6448,7 +6464,7 @@
         <v/>
       </c>
       <c r="E433" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D433,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D433,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6458,7 +6474,7 @@
         <v/>
       </c>
       <c r="E434" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D434,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D434,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6468,7 +6484,7 @@
         <v/>
       </c>
       <c r="E435" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D435,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D435,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6478,7 +6494,7 @@
         <v/>
       </c>
       <c r="E436" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D436,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D436,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6488,7 +6504,7 @@
         <v/>
       </c>
       <c r="E437" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D437,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D437,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6498,7 +6514,7 @@
         <v/>
       </c>
       <c r="E438" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D438,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D438,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6508,7 +6524,7 @@
         <v/>
       </c>
       <c r="E439" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D439,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D439,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6518,7 +6534,7 @@
         <v/>
       </c>
       <c r="E440" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D440,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D440,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6528,7 +6544,7 @@
         <v/>
       </c>
       <c r="E441" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D441,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D441,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6538,7 +6554,7 @@
         <v/>
       </c>
       <c r="E442" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D442,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D442,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6548,7 +6564,7 @@
         <v/>
       </c>
       <c r="E443" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D443,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D443,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6558,7 +6574,7 @@
         <v/>
       </c>
       <c r="E444" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D444,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D444,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6568,7 +6584,7 @@
         <v/>
       </c>
       <c r="E445" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D445,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D445,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6578,7 +6594,7 @@
         <v/>
       </c>
       <c r="E446" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D446,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D446,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6588,7 +6604,7 @@
         <v/>
       </c>
       <c r="E447" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D447,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D447,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6598,7 +6614,7 @@
         <v/>
       </c>
       <c r="E448" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D448,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D448,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6608,7 +6624,7 @@
         <v/>
       </c>
       <c r="E449" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D449,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D449,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6618,7 +6634,7 @@
         <v/>
       </c>
       <c r="E450" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D450,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D450,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6628,7 +6644,7 @@
         <v/>
       </c>
       <c r="E451" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D451,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D451,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6638,7 +6654,7 @@
         <v/>
       </c>
       <c r="E452" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D452,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D452,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6648,7 +6664,7 @@
         <v/>
       </c>
       <c r="E453" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D453,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D453,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6658,7 +6674,7 @@
         <v/>
       </c>
       <c r="E454" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D454,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D454,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6668,7 +6684,7 @@
         <v/>
       </c>
       <c r="E455" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D455,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D455,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6678,7 +6694,7 @@
         <v/>
       </c>
       <c r="E456" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D456,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D456,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6688,7 +6704,7 @@
         <v/>
       </c>
       <c r="E457" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D457,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D457,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6698,7 +6714,7 @@
         <v/>
       </c>
       <c r="E458" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D458,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D458,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6708,7 +6724,7 @@
         <v/>
       </c>
       <c r="E459" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D459,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D459,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6718,7 +6734,7 @@
         <v/>
       </c>
       <c r="E460" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D460,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D460,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6728,7 +6744,7 @@
         <v/>
       </c>
       <c r="E461" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D461,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D461,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6738,7 +6754,7 @@
         <v/>
       </c>
       <c r="E462" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D462,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D462,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6748,7 +6764,7 @@
         <v/>
       </c>
       <c r="E463" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D463,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D463,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6758,7 +6774,7 @@
         <v/>
       </c>
       <c r="E464" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D464,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D464,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6768,7 +6784,7 @@
         <v/>
       </c>
       <c r="E465" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D465,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D465,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6778,7 +6794,7 @@
         <v/>
       </c>
       <c r="E466" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D466,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D466,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6788,7 +6804,7 @@
         <v/>
       </c>
       <c r="E467" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D467,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D467,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6798,7 +6814,7 @@
         <v/>
       </c>
       <c r="E468" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D468,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D468,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6808,7 +6824,7 @@
         <v/>
       </c>
       <c r="E469" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D469,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D469,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6818,7 +6834,7 @@
         <v/>
       </c>
       <c r="E470" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D470,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D470,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6828,7 +6844,7 @@
         <v/>
       </c>
       <c r="E471" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D471,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D471,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6838,7 +6854,7 @@
         <v/>
       </c>
       <c r="E472" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D472,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D472,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6848,7 +6864,7 @@
         <v/>
       </c>
       <c r="E473" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D473,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D473,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6858,7 +6874,7 @@
         <v/>
       </c>
       <c r="E474" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D474,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D474,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6868,7 +6884,7 @@
         <v/>
       </c>
       <c r="E475" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D475,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D475,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6878,7 +6894,7 @@
         <v/>
       </c>
       <c r="E476" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D476,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D476,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6888,7 +6904,7 @@
         <v/>
       </c>
       <c r="E477" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D477,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D477,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6898,7 +6914,7 @@
         <v/>
       </c>
       <c r="E478" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D478,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D478,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6908,7 +6924,7 @@
         <v/>
       </c>
       <c r="E479" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D479,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D479,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6918,7 +6934,7 @@
         <v/>
       </c>
       <c r="E480" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D480,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D480,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6928,7 +6944,7 @@
         <v/>
       </c>
       <c r="E481" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D481,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D481,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6938,7 +6954,7 @@
         <v/>
       </c>
       <c r="E482" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D482,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D482,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6948,7 +6964,7 @@
         <v/>
       </c>
       <c r="E483" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D483,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D483,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6958,7 +6974,7 @@
         <v/>
       </c>
       <c r="E484" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D484,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D484,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6968,7 +6984,7 @@
         <v/>
       </c>
       <c r="E485" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D485,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D485,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6978,7 +6994,7 @@
         <v/>
       </c>
       <c r="E486" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D486,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D486,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6988,7 +7004,7 @@
         <v/>
       </c>
       <c r="E487" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D487,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D487,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -6998,7 +7014,7 @@
         <v/>
       </c>
       <c r="E488" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D488,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D488,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7008,7 +7024,7 @@
         <v/>
       </c>
       <c r="E489" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D489,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D489,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7018,7 +7034,7 @@
         <v/>
       </c>
       <c r="E490" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D490,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D490,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7028,7 +7044,7 @@
         <v/>
       </c>
       <c r="E491" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D491,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D491,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7038,7 +7054,7 @@
         <v/>
       </c>
       <c r="E492" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D492,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D492,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7048,7 +7064,7 @@
         <v/>
       </c>
       <c r="E493" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D493,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D493,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7058,7 +7074,7 @@
         <v/>
       </c>
       <c r="E494" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D494,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D494,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7068,7 +7084,7 @@
         <v/>
       </c>
       <c r="E495" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D495,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D495,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7078,7 +7094,7 @@
         <v/>
       </c>
       <c r="E496" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D496,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D496,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7088,7 +7104,7 @@
         <v/>
       </c>
       <c r="E497" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D497,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D497,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7098,7 +7114,7 @@
         <v/>
       </c>
       <c r="E498" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D498,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D498,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7108,7 +7124,7 @@
         <v/>
       </c>
       <c r="E499" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D499,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D499,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -7118,7 +7134,7 @@
         <v/>
       </c>
       <c r="E500" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET(#REF!,0,0,MaxCount),MATCH($D500,OFFSET(#REF!,0,0,MaxCount),0),1),"")</f>
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($D500,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>

--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -597,6 +597,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="5">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="D1" t="str">
             <v>string</v>
@@ -606,14 +614,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="D1" t="str">
-            <v>string</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>string</v>
-          </cell>
-        </row>
-        <row r="2">
           <cell r="D1" t="str">
             <v>string</v>
           </cell>
@@ -1303,9 +1303,9 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="e">
-        <f ca="1">MATCH($B7,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0)</f>
-        <v>#N/A</v>
+      <c r="C7" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[2]Sheet1'!$D$1,0,0,MaxCount),MATCH($B7,OFFSET('[2]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
       </c>
       <c r="D7" s="7" t="s">
         <v>22</v>

--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -499,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,10 +556,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,10 +569,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2000"/>
+  <dimension ref="A1:N2000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1136,7 +1128,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="7" t="str">
@@ -1167,7 +1159,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="7" t="str">
@@ -1232,7 +1224,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="7" t="str">
@@ -1265,7 +1257,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="7" t="str">
@@ -1298,7 +1290,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="7" t="str">
@@ -1331,7 +1323,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="7" t="str">
@@ -1364,7 +1356,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="7" t="str">
@@ -1430,7 +1422,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="7" t="str">
@@ -1490,7 +1482,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="7" t="str">
@@ -1550,7 +1542,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="7" t="str">
@@ -1580,7 +1572,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="7" t="str">
@@ -1610,14 +1602,14 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($D27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F27" s="14" t="n">
         <v>326270</v>
       </c>
       <c r="G27" s="2" t="n">
@@ -1640,7 +1632,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="7" t="str">
@@ -1670,7 +1662,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="2" t="str">
@@ -1700,7 +1692,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="2" t="str">
@@ -1730,7 +1722,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="2" t="str">
@@ -1760,7 +1752,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="13" t="str">
@@ -1790,7 +1782,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="13" t="str">
@@ -1820,7 +1812,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B34,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="2" t="str">
@@ -1850,7 +1842,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B35,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -1880,7 +1872,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B36,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="13" t="str">
@@ -1909,7 +1901,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="2" t="str">
@@ -1938,7 +1930,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E38" s="2" t="str">
@@ -1967,7 +1959,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E39" s="2" t="str">
@@ -1996,7 +1988,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B40,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>90</v>
       </c>
       <c r="E40" s="2" t="str">
@@ -2025,7 +2017,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B41,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>92</v>
       </c>
       <c r="E41" s="2" t="str">
@@ -2054,7 +2046,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B42,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>94</v>
       </c>
       <c r="E42" s="2" t="str">
@@ -2083,7 +2075,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B43,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="2" t="str">
@@ -2112,7 +2104,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B44,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>98</v>
       </c>
       <c r="E44" s="2" t="str">
@@ -2141,7 +2133,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B45,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="2" t="str">
@@ -2169,7 +2161,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B46,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>102</v>
       </c>
       <c r="E46" s="2" t="str">
@@ -2197,7 +2189,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B47,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>104</v>
       </c>
       <c r="E47" s="2" t="str">
@@ -2225,7 +2217,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B48,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>106</v>
       </c>
       <c r="E48" s="2" t="str">
@@ -2242,7 +2234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
         <v>44</v>
       </c>
@@ -2253,7 +2245,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B49,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>108</v>
       </c>
       <c r="E49" s="13" t="str">
@@ -2261,7 +2253,7 @@
         <v/>
       </c>
       <c r="F49" s="13" t="n">
-        <v>381553</v>
+        <v>386905</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>1</v>
@@ -2269,19 +2261,8 @@
       <c r="H49" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-    </row>
-    <row r="50" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
         <v>45</v>
       </c>
@@ -2292,7 +2273,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B50,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E50" s="13" t="str">
@@ -2308,17 +2289,6 @@
       <c r="H50" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -21905,10 +21875,10 @@
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="20" t="n">
+      <c r="B1" s="18" t="n">
         <v>2000</v>
       </c>
     </row>

--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:N2000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,7 +1074,7 @@
         <v/>
       </c>
       <c r="F10" s="13" t="n">
-        <v>381551</v>
+        <v>388645</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v/>
       </c>
       <c r="F11" s="13" t="n">
-        <v>381547</v>
+        <v>388647</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v/>
       </c>
       <c r="F14" s="13" t="n">
-        <v>381596</v>
+        <v>388638</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v/>
       </c>
       <c r="F20" s="13" t="n">
-        <v>381549</v>
+        <v>388644</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v/>
       </c>
       <c r="F22" s="13" t="n">
-        <v>326244</v>
+        <v>388636</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v/>
       </c>
       <c r="F24" s="13" t="n">
-        <v>381550</v>
+        <v>388639</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v/>
       </c>
       <c r="F32" s="13" t="n">
-        <v>381552</v>
+        <v>388641</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v/>
       </c>
       <c r="F33" s="13" t="n">
-        <v>381602</v>
+        <v>388635</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
       <c r="F36" s="13" t="n">
-        <v>381600</v>
+        <v>388640</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>1</v>
@@ -2253,7 +2253,7 @@
         <v/>
       </c>
       <c r="F49" s="13" t="n">
-        <v>386905</v>
+        <v>388643</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v/>
       </c>
       <c r="F50" s="13" t="n">
-        <v>381597</v>
+        <v>388646</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>1</v>

--- a/dragon-verse/Excels/BagItem_背包物品表.xlsx
+++ b/dragon-verse/Excels/BagItem_背包物品表.xlsx
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:N2000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,7 +1074,7 @@
         <v/>
       </c>
       <c r="F10" s="13" t="n">
-        <v>388645</v>
+        <v>390466</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v/>
       </c>
       <c r="F11" s="13" t="n">
-        <v>388647</v>
+        <v>390463</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v/>
       </c>
       <c r="F14" s="13" t="n">
-        <v>388638</v>
+        <v>390464</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v/>
       </c>
       <c r="F20" s="13" t="n">
-        <v>388644</v>
+        <v>390468</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v/>
       </c>
       <c r="F22" s="13" t="n">
-        <v>388636</v>
+        <v>390474</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v/>
       </c>
       <c r="F24" s="13" t="n">
-        <v>388639</v>
+        <v>390465</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v/>
       </c>
       <c r="F32" s="13" t="n">
-        <v>388641</v>
+        <v>390471</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v/>
       </c>
       <c r="F33" s="13" t="n">
-        <v>388635</v>
+        <v>390469</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
       <c r="F36" s="13" t="n">
-        <v>388640</v>
+        <v>390473</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>1</v>
@@ -2253,7 +2253,7 @@
         <v/>
       </c>
       <c r="F49" s="13" t="n">
-        <v>388643</v>
+        <v>390472</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v/>
       </c>
       <c r="F50" s="13" t="n">
-        <v>388646</v>
+        <v>390470</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>1</v>
